--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q122"/>
+  <dimension ref="A1:R123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>1</v>
       </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>2</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>2</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>1</v>
       </c>
+      <c r="R120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,63 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1070</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1070</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1037.650024414062</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1038.099975585938</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1038.099975585938</v>
+      </c>
+      <c r="G123" t="n">
+        <v>330329</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I123" t="n">
+        <v>6</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>23</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -7357,7 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
-      <c r="R123" t="inlineStr"/>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q127"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>1</v>
       </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>2</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>2</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6716,12 +7069,15 @@
         <v>22</v>
       </c>
       <c r="O118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118" t="n">
         <v>0</v>
       </c>
       <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>1</v>
       </c>
+      <c r="R120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,279 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1061.400024414062</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1069.449951171875</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1053.900024414062</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1057.550048828125</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1047.512329101562</v>
+      </c>
+      <c r="G128" t="n">
+        <v>689544</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I128" t="n">
+        <v>6</v>
+      </c>
+      <c r="J128" t="n">
+        <v>10</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>24</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1063.050048828125</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1073.699951171875</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1058.050048828125</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1059.650024414062</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1049.592407226562</v>
+      </c>
+      <c r="G129" t="n">
+        <v>854848</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I129" t="n">
+        <v>6</v>
+      </c>
+      <c r="J129" t="n">
+        <v>11</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>24</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>2</v>
+      </c>
+      <c r="R129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1067.449951171875</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1055</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1058.849975585938</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1048.799926757812</v>
+      </c>
+      <c r="G130" t="n">
+        <v>840937</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I130" t="n">
+        <v>6</v>
+      </c>
+      <c r="J130" t="n">
+        <v>12</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>24</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1063</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1046.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1049.050048828125</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1049.050048828125</v>
+      </c>
+      <c r="G131" t="n">
+        <v>959539</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I131" t="n">
+        <v>6</v>
+      </c>
+      <c r="J131" t="n">
+        <v>13</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>24</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1049.050048828125</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1049.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1036.849975585938</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1037.650024414062</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1037.650024414062</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1144057</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I132" t="n">
+        <v>6</v>
+      </c>
+      <c r="J132" t="n">
+        <v>14</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>24</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -7637,7 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
-      <c r="R128" t="inlineStr"/>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7691,7 +7693,9 @@
       <c r="Q129" t="n">
         <v>2</v>
       </c>
-      <c r="R129" t="inlineStr"/>
+      <c r="R129" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7745,7 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
-      <c r="R130" t="inlineStr"/>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7799,7 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
-      <c r="R131" t="inlineStr"/>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7853,7 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
-      <c r="R132" t="inlineStr"/>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R132"/>
+  <dimension ref="A1:R133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7865,6 +7865,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1040.400024414062</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1042</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1027.949951171875</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1029.599975585938</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1029.599975585938</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1185201</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I133" t="n">
+        <v>6</v>
+      </c>
+      <c r="J133" t="n">
+        <v>18</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>25</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R133"/>
+  <dimension ref="A1:R134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7405,7 +7405,7 @@
         <v>23</v>
       </c>
       <c r="O124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P124" t="n">
         <v>0</v>
@@ -7917,7 +7917,63 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
-      <c r="R133" t="inlineStr"/>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1043.900024414062</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1021</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1027.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1027.5</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1122766</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I134" t="n">
+        <v>6</v>
+      </c>
+      <c r="J134" t="n">
+        <v>19</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>25</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R134"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7973,7 +7973,387 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
-      <c r="R134" t="inlineStr"/>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1027.349975585938</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1027.349975585938</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1004.25</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1010.349975585938</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1010.349975585938</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2391725</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I135" t="n">
+        <v>6</v>
+      </c>
+      <c r="J135" t="n">
+        <v>20</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>25</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>1</v>
+      </c>
+      <c r="R135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1010.349975585938</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1013.900024414062</v>
+      </c>
+      <c r="D136" t="n">
+        <v>982.6500244140625</v>
+      </c>
+      <c r="E136" t="n">
+        <v>992.25</v>
+      </c>
+      <c r="F136" t="n">
+        <v>992.25</v>
+      </c>
+      <c r="G136" t="n">
+        <v>7044016</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I136" t="n">
+        <v>6</v>
+      </c>
+      <c r="J136" t="n">
+        <v>21</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>25</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B137" t="n">
+        <v>992.25</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1006.950012207031</v>
+      </c>
+      <c r="D137" t="n">
+        <v>989.75</v>
+      </c>
+      <c r="E137" t="n">
+        <v>999.6500244140625</v>
+      </c>
+      <c r="F137" t="n">
+        <v>999.6500244140625</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1093347</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I137" t="n">
+        <v>6</v>
+      </c>
+      <c r="J137" t="n">
+        <v>24</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>26</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1000.950012207031</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1000.950012207031</v>
+      </c>
+      <c r="G138" t="n">
+        <v>468341</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I138" t="n">
+        <v>6</v>
+      </c>
+      <c r="J138" t="n">
+        <v>25</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>26</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1000.349975585938</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1003.549987792969</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1003.549987792969</v>
+      </c>
+      <c r="G139" t="n">
+        <v>512833</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I139" t="n">
+        <v>6</v>
+      </c>
+      <c r="J139" t="n">
+        <v>26</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>26</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1017.25</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1017.25</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1343843</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I140" t="n">
+        <v>6</v>
+      </c>
+      <c r="J140" t="n">
+        <v>27</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>26</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1019.200012207031</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1027.900024414062</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1017.25</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1021.950012207031</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1021.950012207031</v>
+      </c>
+      <c r="G141" t="n">
+        <v>743108</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I141" t="n">
+        <v>6</v>
+      </c>
+      <c r="J141" t="n">
+        <v>28</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>26</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -8029,7 +8029,9 @@
       <c r="Q135" t="n">
         <v>1</v>
       </c>
-      <c r="R135" t="inlineStr"/>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -8083,7 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
-      <c r="R136" t="inlineStr"/>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -8137,7 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
-      <c r="R137" t="inlineStr"/>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -8191,7 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
-      <c r="R138" t="inlineStr"/>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -8245,7 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
-      <c r="R139" t="inlineStr"/>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -8299,7 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
-      <c r="R140" t="inlineStr"/>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -8353,7 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
-      <c r="R141" t="inlineStr"/>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:R146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8077,7 +8077,7 @@
         <v>25</v>
       </c>
       <c r="O136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P136" t="n">
         <v>0</v>
@@ -8368,6 +8368,276 @@
       <c r="R141" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1023.299987792969</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1029.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1014.849975585938</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1014.849975585938</v>
+      </c>
+      <c r="G142" t="n">
+        <v>627199</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I142" t="n">
+        <v>7</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>27</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1014.849975585938</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1019.099975585938</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1006.75</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1009.599975585938</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1009.599975585938</v>
+      </c>
+      <c r="G143" t="n">
+        <v>433251</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I143" t="n">
+        <v>7</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>27</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1014.25</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1014.299987792969</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1008.150024414062</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1009.75</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1009.75</v>
+      </c>
+      <c r="G144" t="n">
+        <v>409471</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I144" t="n">
+        <v>7</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>27</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1013.349975585938</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1013.349975585938</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1006.200012207031</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1009</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1009</v>
+      </c>
+      <c r="G145" t="n">
+        <v>460871</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I145" t="n">
+        <v>7</v>
+      </c>
+      <c r="J145" t="n">
+        <v>4</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>27</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1012.950012207031</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1009.049987792969</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1010.349975585938</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1010.349975585938</v>
+      </c>
+      <c r="G146" t="n">
+        <v>703361</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I146" t="n">
+        <v>7</v>
+      </c>
+      <c r="J146" t="n">
+        <v>5</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>27</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R146"/>
+  <dimension ref="A1:R155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8421,7 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
-      <c r="R142" t="inlineStr"/>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8475,7 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
-      <c r="R143" t="inlineStr"/>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8529,7 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
-      <c r="R144" t="inlineStr"/>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8583,7 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
-      <c r="R145" t="inlineStr"/>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8637,7 +8645,495 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
-      <c r="R146" t="inlineStr"/>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1014.849975585938</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1015.75</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1004.549987792969</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1004.549987792969</v>
+      </c>
+      <c r="G147" t="n">
+        <v>459742</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I147" t="n">
+        <v>7</v>
+      </c>
+      <c r="J147" t="n">
+        <v>8</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>28</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>1</v>
+      </c>
+      <c r="R147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1004.549987792969</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1024.599975585938</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1004.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1012.299987792969</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1012.299987792969</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1004845</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I148" t="n">
+        <v>7</v>
+      </c>
+      <c r="J148" t="n">
+        <v>9</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>28</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1026.75</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1007.700012207031</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1011.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1011.5</v>
+      </c>
+      <c r="G149" t="n">
+        <v>902487</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I149" t="n">
+        <v>7</v>
+      </c>
+      <c r="J149" t="n">
+        <v>10</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>28</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1014.799987792969</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1022.900024414062</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1011.950012207031</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1014.950012207031</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1014.950012207031</v>
+      </c>
+      <c r="G150" t="n">
+        <v>693392</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I150" t="n">
+        <v>7</v>
+      </c>
+      <c r="J150" t="n">
+        <v>11</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>28</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1019.5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1043</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1033.400024414062</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1033.400024414062</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2878465</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I151" t="n">
+        <v>7</v>
+      </c>
+      <c r="J151" t="n">
+        <v>12</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>28</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1043.900024414062</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1025.349975585938</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1025.349975585938</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1098815</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I152" t="n">
+        <v>7</v>
+      </c>
+      <c r="J152" t="n">
+        <v>15</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>29</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1027.349975585938</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1033</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1012.25</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1015.25</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1015.25</v>
+      </c>
+      <c r="G153" t="n">
+        <v>802135</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I153" t="n">
+        <v>7</v>
+      </c>
+      <c r="J153" t="n">
+        <v>16</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>29</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1019.25</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1009.150024414062</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1009.150024414062</v>
+      </c>
+      <c r="G154" t="n">
+        <v>655960</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I154" t="n">
+        <v>7</v>
+      </c>
+      <c r="J154" t="n">
+        <v>18</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>29</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B155" t="n">
+        <v>998</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1005.799987792969</v>
+      </c>
+      <c r="D155" t="n">
+        <v>990</v>
+      </c>
+      <c r="E155" t="n">
+        <v>997.2000122070312</v>
+      </c>
+      <c r="F155" t="n">
+        <v>997.2000122070312</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1176356</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I155" t="n">
+        <v>7</v>
+      </c>
+      <c r="J155" t="n">
+        <v>19</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>29</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R155" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R155"/>
+  <dimension ref="A1:R165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8701,7 +8701,9 @@
       <c r="Q147" t="n">
         <v>1</v>
       </c>
-      <c r="R147" t="inlineStr"/>
+      <c r="R147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8755,7 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
-      <c r="R148" t="inlineStr"/>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8809,7 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
-      <c r="R149" t="inlineStr"/>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8863,7 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
-      <c r="R150" t="inlineStr"/>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8917,7 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
-      <c r="R151" t="inlineStr"/>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8963,7 +8973,7 @@
         <v>29</v>
       </c>
       <c r="O152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P152" t="n">
         <v>0</v>
@@ -8971,7 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
-      <c r="R152" t="inlineStr"/>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -9025,7 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
-      <c r="R153" t="inlineStr"/>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -9079,7 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
-      <c r="R154" t="inlineStr"/>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -9133,7 +9149,549 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
-      <c r="R155" t="inlineStr"/>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B156" t="n">
+        <v>997.2000122070312</v>
+      </c>
+      <c r="C156" t="n">
+        <v>998</v>
+      </c>
+      <c r="D156" t="n">
+        <v>990.5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>992.7000122070312</v>
+      </c>
+      <c r="F156" t="n">
+        <v>992.7000122070312</v>
+      </c>
+      <c r="G156" t="n">
+        <v>594894</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I156" t="n">
+        <v>7</v>
+      </c>
+      <c r="J156" t="n">
+        <v>22</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>30</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B157" t="n">
+        <v>995</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D157" t="n">
+        <v>983</v>
+      </c>
+      <c r="E157" t="n">
+        <v>996.6500244140625</v>
+      </c>
+      <c r="F157" t="n">
+        <v>996.6500244140625</v>
+      </c>
+      <c r="G157" t="n">
+        <v>761466</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I157" t="n">
+        <v>7</v>
+      </c>
+      <c r="J157" t="n">
+        <v>23</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>30</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B158" t="n">
+        <v>995</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1007.650024414062</v>
+      </c>
+      <c r="D158" t="n">
+        <v>994</v>
+      </c>
+      <c r="E158" t="n">
+        <v>997.25</v>
+      </c>
+      <c r="F158" t="n">
+        <v>997.25</v>
+      </c>
+      <c r="G158" t="n">
+        <v>366520</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I158" t="n">
+        <v>7</v>
+      </c>
+      <c r="J158" t="n">
+        <v>24</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>30</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B159" t="n">
+        <v>996</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D159" t="n">
+        <v>994</v>
+      </c>
+      <c r="E159" t="n">
+        <v>999.5499877929688</v>
+      </c>
+      <c r="F159" t="n">
+        <v>999.5499877929688</v>
+      </c>
+      <c r="G159" t="n">
+        <v>382077</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I159" t="n">
+        <v>7</v>
+      </c>
+      <c r="J159" t="n">
+        <v>25</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>30</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D160" t="n">
+        <v>997.0999755859375</v>
+      </c>
+      <c r="E160" t="n">
+        <v>999</v>
+      </c>
+      <c r="F160" t="n">
+        <v>999</v>
+      </c>
+      <c r="G160" t="n">
+        <v>736307</v>
+      </c>
+      <c r="H160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I160" t="n">
+        <v>7</v>
+      </c>
+      <c r="J160" t="n">
+        <v>26</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>30</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1007.349975585938</v>
+      </c>
+      <c r="D161" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1000.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1000.5</v>
+      </c>
+      <c r="G161" t="n">
+        <v>400954</v>
+      </c>
+      <c r="H161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I161" t="n">
+        <v>7</v>
+      </c>
+      <c r="J161" t="n">
+        <v>29</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>31</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1004.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1004.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>998</v>
+      </c>
+      <c r="E162" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="F162" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="G162" t="n">
+        <v>434066</v>
+      </c>
+      <c r="H162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I162" t="n">
+        <v>7</v>
+      </c>
+      <c r="J162" t="n">
+        <v>30</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>31</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D163" t="n">
+        <v>998.9500122070312</v>
+      </c>
+      <c r="E163" t="n">
+        <v>999.3499755859375</v>
+      </c>
+      <c r="F163" t="n">
+        <v>999.3499755859375</v>
+      </c>
+      <c r="G163" t="n">
+        <v>323172</v>
+      </c>
+      <c r="H163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I163" t="n">
+        <v>7</v>
+      </c>
+      <c r="J163" t="n">
+        <v>31</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>31</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>2</v>
+      </c>
+      <c r="R163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D164" t="n">
+        <v>994</v>
+      </c>
+      <c r="E164" t="n">
+        <v>995.4000244140625</v>
+      </c>
+      <c r="F164" t="n">
+        <v>995.4000244140625</v>
+      </c>
+      <c r="G164" t="n">
+        <v>578837</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I164" t="n">
+        <v>8</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>31</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B165" t="n">
+        <v>993</v>
+      </c>
+      <c r="C165" t="n">
+        <v>997.2000122070312</v>
+      </c>
+      <c r="D165" t="n">
+        <v>990.7999877929688</v>
+      </c>
+      <c r="E165" t="n">
+        <v>992</v>
+      </c>
+      <c r="F165" t="n">
+        <v>992</v>
+      </c>
+      <c r="G165" t="n">
+        <v>355154</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I165" t="n">
+        <v>8</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>31</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R165"/>
+  <dimension ref="A1:R170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9205,7 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
-      <c r="R156" t="inlineStr"/>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -9259,7 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
-      <c r="R157" t="inlineStr"/>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -9313,7 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
-      <c r="R158" t="inlineStr"/>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -9367,7 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
-      <c r="R159" t="inlineStr"/>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -9421,7 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
-      <c r="R160" t="inlineStr"/>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9475,7 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
-      <c r="R161" t="inlineStr"/>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9529,7 +9541,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
-      <c r="R162" t="inlineStr"/>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9583,7 +9597,9 @@
       <c r="Q163" t="n">
         <v>2</v>
       </c>
-      <c r="R163" t="inlineStr"/>
+      <c r="R163" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9637,7 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
-      <c r="R164" t="inlineStr"/>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9691,7 +9709,279 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
-      <c r="R165" t="inlineStr"/>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B166" t="n">
+        <v>981</v>
+      </c>
+      <c r="C166" t="n">
+        <v>985.5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>970.0999755859375</v>
+      </c>
+      <c r="E166" t="n">
+        <v>976.2999877929688</v>
+      </c>
+      <c r="F166" t="n">
+        <v>976.2999877929688</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1058840</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I166" t="n">
+        <v>8</v>
+      </c>
+      <c r="J166" t="n">
+        <v>5</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>32</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B167" t="n">
+        <v>976.25</v>
+      </c>
+      <c r="C167" t="n">
+        <v>993.9500122070312</v>
+      </c>
+      <c r="D167" t="n">
+        <v>976</v>
+      </c>
+      <c r="E167" t="n">
+        <v>983.0499877929688</v>
+      </c>
+      <c r="F167" t="n">
+        <v>983.0499877929688</v>
+      </c>
+      <c r="G167" t="n">
+        <v>656501</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I167" t="n">
+        <v>8</v>
+      </c>
+      <c r="J167" t="n">
+        <v>6</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>32</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B168" t="n">
+        <v>990</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1001.950012207031</v>
+      </c>
+      <c r="D168" t="n">
+        <v>983.0999755859375</v>
+      </c>
+      <c r="E168" t="n">
+        <v>999.1500244140625</v>
+      </c>
+      <c r="F168" t="n">
+        <v>999.1500244140625</v>
+      </c>
+      <c r="G168" t="n">
+        <v>564967</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I168" t="n">
+        <v>8</v>
+      </c>
+      <c r="J168" t="n">
+        <v>7</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>32</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1004.299987792969</v>
+      </c>
+      <c r="D169" t="n">
+        <v>992.2000122070312</v>
+      </c>
+      <c r="E169" t="n">
+        <v>998.7999877929688</v>
+      </c>
+      <c r="F169" t="n">
+        <v>998.7999877929688</v>
+      </c>
+      <c r="G169" t="n">
+        <v>445571</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I169" t="n">
+        <v>8</v>
+      </c>
+      <c r="J169" t="n">
+        <v>8</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>32</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1004.700012207031</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1009.950012207031</v>
+      </c>
+      <c r="D170" t="n">
+        <v>987.5</v>
+      </c>
+      <c r="E170" t="n">
+        <v>989.6500244140625</v>
+      </c>
+      <c r="F170" t="n">
+        <v>989.6500244140625</v>
+      </c>
+      <c r="G170" t="n">
+        <v>390930</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I170" t="n">
+        <v>8</v>
+      </c>
+      <c r="J170" t="n">
+        <v>9</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>32</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R170" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R170"/>
+  <dimension ref="A1:R174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9765,7 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
-      <c r="R166" t="inlineStr"/>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9819,7 +9821,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
-      <c r="R167" t="inlineStr"/>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9873,7 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
-      <c r="R168" t="inlineStr"/>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9927,7 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
-      <c r="R169" t="inlineStr"/>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9981,7 +9989,225 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
-      <c r="R170" t="inlineStr"/>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B171" t="n">
+        <v>985</v>
+      </c>
+      <c r="C171" t="n">
+        <v>994.9000244140625</v>
+      </c>
+      <c r="D171" t="n">
+        <v>980.3499755859375</v>
+      </c>
+      <c r="E171" t="n">
+        <v>993.0999755859375</v>
+      </c>
+      <c r="F171" t="n">
+        <v>993.0999755859375</v>
+      </c>
+      <c r="G171" t="n">
+        <v>386111</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I171" t="n">
+        <v>8</v>
+      </c>
+      <c r="J171" t="n">
+        <v>12</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>33</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B172" t="n">
+        <v>993</v>
+      </c>
+      <c r="C172" t="n">
+        <v>996.9000244140625</v>
+      </c>
+      <c r="D172" t="n">
+        <v>988</v>
+      </c>
+      <c r="E172" t="n">
+        <v>994.4500122070312</v>
+      </c>
+      <c r="F172" t="n">
+        <v>994.4500122070312</v>
+      </c>
+      <c r="G172" t="n">
+        <v>438966</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I172" t="n">
+        <v>8</v>
+      </c>
+      <c r="J172" t="n">
+        <v>13</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>33</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B173" t="n">
+        <v>994.0499877929688</v>
+      </c>
+      <c r="C173" t="n">
+        <v>996</v>
+      </c>
+      <c r="D173" t="n">
+        <v>980</v>
+      </c>
+      <c r="E173" t="n">
+        <v>992.4000244140625</v>
+      </c>
+      <c r="F173" t="n">
+        <v>992.4000244140625</v>
+      </c>
+      <c r="G173" t="n">
+        <v>347203</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I173" t="n">
+        <v>8</v>
+      </c>
+      <c r="J173" t="n">
+        <v>14</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>33</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B174" t="n">
+        <v>994.9500122070312</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D174" t="n">
+        <v>993.1500244140625</v>
+      </c>
+      <c r="E174" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="F174" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1201021</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I174" t="n">
+        <v>8</v>
+      </c>
+      <c r="J174" t="n">
+        <v>16</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>33</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R174" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R174"/>
+  <dimension ref="A1:R179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9757,7 +9757,7 @@
         <v>32</v>
       </c>
       <c r="O166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P166" t="n">
         <v>0</v>
@@ -10045,7 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
-      <c r="R171" t="inlineStr"/>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -10099,7 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
-      <c r="R172" t="inlineStr"/>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -10153,7 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
-      <c r="R173" t="inlineStr"/>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -10207,7 +10213,279 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
-      <c r="R174" t="inlineStr"/>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1007.349975585938</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1007.349975585938</v>
+      </c>
+      <c r="D175" t="n">
+        <v>996</v>
+      </c>
+      <c r="E175" t="n">
+        <v>998.7000122070312</v>
+      </c>
+      <c r="F175" t="n">
+        <v>998.7000122070312</v>
+      </c>
+      <c r="G175" t="n">
+        <v>344295</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I175" t="n">
+        <v>8</v>
+      </c>
+      <c r="J175" t="n">
+        <v>19</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>34</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1040</v>
+      </c>
+      <c r="D176" t="n">
+        <v>998</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1004.400024414062</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1004.400024414062</v>
+      </c>
+      <c r="G176" t="n">
+        <v>3447339</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I176" t="n">
+        <v>8</v>
+      </c>
+      <c r="J176" t="n">
+        <v>20</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>34</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1048.75</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1000.450012207031</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1025.449951171875</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1025.449951171875</v>
+      </c>
+      <c r="G177" t="n">
+        <v>5021319</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I177" t="n">
+        <v>8</v>
+      </c>
+      <c r="J177" t="n">
+        <v>21</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>34</v>
+      </c>
+      <c r="O177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P177" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>1</v>
+      </c>
+      <c r="R177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1036.5</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1045</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1002.400024414062</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1007.200012207031</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1007.200012207031</v>
+      </c>
+      <c r="G178" t="n">
+        <v>3583853</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I178" t="n">
+        <v>8</v>
+      </c>
+      <c r="J178" t="n">
+        <v>22</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>34</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1012.950012207031</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1054.800048828125</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1012.950012207031</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1036.949951171875</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1036.949951171875</v>
+      </c>
+      <c r="G179" t="n">
+        <v>17482470</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I179" t="n">
+        <v>8</v>
+      </c>
+      <c r="J179" t="n">
+        <v>23</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>34</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R179" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R179"/>
+  <dimension ref="A1:R183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10269,7 +10269,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
-      <c r="R175" t="inlineStr"/>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -10323,7 +10325,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
-      <c r="R176" t="inlineStr"/>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -10377,7 +10381,9 @@
       <c r="Q177" t="n">
         <v>1</v>
       </c>
-      <c r="R177" t="inlineStr"/>
+      <c r="R177" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -10431,7 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
-      <c r="R178" t="inlineStr"/>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -10485,7 +10493,225 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
-      <c r="R179" t="inlineStr"/>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1053</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1064.900024414062</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1040</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1048.650024414062</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1048.650024414062</v>
+      </c>
+      <c r="G180" t="n">
+        <v>9134874</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I180" t="n">
+        <v>8</v>
+      </c>
+      <c r="J180" t="n">
+        <v>26</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>35</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1107</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1075.050048828125</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1078.800048828125</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1078.800048828125</v>
+      </c>
+      <c r="G181" t="n">
+        <v>11550850</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I181" t="n">
+        <v>8</v>
+      </c>
+      <c r="J181" t="n">
+        <v>28</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>35</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1080</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1089.900024414062</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1057.400024414062</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1061.300048828125</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1061.300048828125</v>
+      </c>
+      <c r="G182" t="n">
+        <v>4381449</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I182" t="n">
+        <v>8</v>
+      </c>
+      <c r="J182" t="n">
+        <v>29</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>35</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1069</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1080</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1054.199951171875</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1065.599975585938</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1065.599975585938</v>
+      </c>
+      <c r="G183" t="n">
+        <v>5282409</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I183" t="n">
+        <v>8</v>
+      </c>
+      <c r="J183" t="n">
+        <v>30</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>35</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R183" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R183"/>
+  <dimension ref="A1:R188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10549,7 +10549,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
-      <c r="R180" t="inlineStr"/>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10603,7 +10605,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
-      <c r="R181" t="inlineStr"/>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10657,7 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
-      <c r="R182" t="inlineStr"/>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10711,7 +10717,279 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
-      <c r="R183" t="inlineStr"/>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1075</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1076</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1048</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="G184" t="n">
+        <v>3261188</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I184" t="n">
+        <v>9</v>
+      </c>
+      <c r="J184" t="n">
+        <v>2</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>36</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1057</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1074.300048828125</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1045.550048828125</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="G185" t="n">
+        <v>4403973</v>
+      </c>
+      <c r="H185" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I185" t="n">
+        <v>9</v>
+      </c>
+      <c r="J185" t="n">
+        <v>3</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>36</v>
+      </c>
+      <c r="O185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1068</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1051.599975585938</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1056.199951171875</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1056.199951171875</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2328712</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I186" t="n">
+        <v>9</v>
+      </c>
+      <c r="J186" t="n">
+        <v>4</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>36</v>
+      </c>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1088</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1058.25</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1074.900024414062</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1074.900024414062</v>
+      </c>
+      <c r="G187" t="n">
+        <v>4763630</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I187" t="n">
+        <v>9</v>
+      </c>
+      <c r="J187" t="n">
+        <v>5</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>36</v>
+      </c>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1083</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1122.900024414062</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1075.050048828125</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1112.650024414062</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1112.650024414062</v>
+      </c>
+      <c r="G188" t="n">
+        <v>13357808</v>
+      </c>
+      <c r="H188" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I188" t="n">
+        <v>9</v>
+      </c>
+      <c r="J188" t="n">
+        <v>6</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>36</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R188" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R188"/>
+  <dimension ref="A1:R193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10773,7 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
-      <c r="R184" t="inlineStr"/>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10827,7 +10829,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
-      <c r="R185" t="inlineStr"/>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10881,7 +10885,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
-      <c r="R186" t="inlineStr"/>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10935,7 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
-      <c r="R187" t="inlineStr"/>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10989,7 +10997,279 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
-      <c r="R188" t="inlineStr"/>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1115</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1074.25</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1077.550048828125</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1077.550048828125</v>
+      </c>
+      <c r="G189" t="n">
+        <v>4375346</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I189" t="n">
+        <v>9</v>
+      </c>
+      <c r="J189" t="n">
+        <v>9</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>37</v>
+      </c>
+      <c r="O189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1088.900024414062</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1109.699951171875</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1085.050048828125</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1091</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1091</v>
+      </c>
+      <c r="G190" t="n">
+        <v>3214864</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I190" t="n">
+        <v>9</v>
+      </c>
+      <c r="J190" t="n">
+        <v>10</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>37</v>
+      </c>
+      <c r="O190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1098</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1107.800048828125</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1073.900024414062</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1077.849975585938</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1077.849975585938</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2809030</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I191" t="n">
+        <v>9</v>
+      </c>
+      <c r="J191" t="n">
+        <v>11</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>37</v>
+      </c>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1089.900024414062</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1095</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1079.199951171875</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1083.75</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1083.75</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1885495</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I192" t="n">
+        <v>9</v>
+      </c>
+      <c r="J192" t="n">
+        <v>12</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>37</v>
+      </c>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1105.900024414062</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1085.300048828125</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1089.699951171875</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1089.699951171875</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2196673</v>
+      </c>
+      <c r="H193" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I193" t="n">
+        <v>9</v>
+      </c>
+      <c r="J193" t="n">
+        <v>13</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>37</v>
+      </c>
+      <c r="O193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R193" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R193"/>
+  <dimension ref="A1:R198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11053,7 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
-      <c r="R189" t="inlineStr"/>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -11107,7 +11109,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
-      <c r="R190" t="inlineStr"/>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -11161,7 +11165,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
-      <c r="R191" t="inlineStr"/>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -11215,7 +11221,9 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
-      <c r="R192" t="inlineStr"/>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -11269,7 +11277,279 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
-      <c r="R193" t="inlineStr"/>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1106</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1120.849975585938</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1090.75</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1094.650024414062</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1094.650024414062</v>
+      </c>
+      <c r="G194" t="n">
+        <v>3107177</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I194" t="n">
+        <v>9</v>
+      </c>
+      <c r="J194" t="n">
+        <v>16</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>38</v>
+      </c>
+      <c r="O194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1095.5</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1100.449951171875</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1077.900024414062</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1080.300048828125</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1080.300048828125</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1432399</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I195" t="n">
+        <v>9</v>
+      </c>
+      <c r="J195" t="n">
+        <v>17</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>38</v>
+      </c>
+      <c r="O195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>0</v>
+      </c>
+      <c r="R195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1082</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1086.849975585938</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1062.099975585938</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1065.800048828125</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1065.800048828125</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1546582</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I196" t="n">
+        <v>9</v>
+      </c>
+      <c r="J196" t="n">
+        <v>18</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>38</v>
+      </c>
+      <c r="O196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>0</v>
+      </c>
+      <c r="R196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1080.449951171875</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1096.949951171875</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1051.849975585938</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1060.75</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1060.75</v>
+      </c>
+      <c r="G197" t="n">
+        <v>3066974</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I197" t="n">
+        <v>9</v>
+      </c>
+      <c r="J197" t="n">
+        <v>19</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>38</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1069.349975585938</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1136</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1067</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1114.699951171875</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1114.699951171875</v>
+      </c>
+      <c r="G198" t="n">
+        <v>9373875</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I198" t="n">
+        <v>9</v>
+      </c>
+      <c r="J198" t="n">
+        <v>20</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>38</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R198" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R198"/>
+  <dimension ref="A1:R203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11333,7 +11333,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
-      <c r="R194" t="inlineStr"/>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -11387,7 +11389,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
-      <c r="R195" t="inlineStr"/>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -11441,7 +11445,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
-      <c r="R196" t="inlineStr"/>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -11495,7 +11501,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -11549,7 +11557,279 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1130</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1130</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1101</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1106.699951171875</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1106.699951171875</v>
+      </c>
+      <c r="G199" t="n">
+        <v>3099891</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I199" t="n">
+        <v>9</v>
+      </c>
+      <c r="J199" t="n">
+        <v>23</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>39</v>
+      </c>
+      <c r="O199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1109.699951171875</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1113.300048828125</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1096</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1098.5</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1098.5</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1205371</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I200" t="n">
+        <v>9</v>
+      </c>
+      <c r="J200" t="n">
+        <v>24</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>39</v>
+      </c>
+      <c r="O200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1100.800048828125</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1111</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1085</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1088.599975585938</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1088.599975585938</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1216881</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I201" t="n">
+        <v>9</v>
+      </c>
+      <c r="J201" t="n">
+        <v>25</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>39</v>
+      </c>
+      <c r="O201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1107</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1084</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1094.949951171875</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1094.949951171875</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1315081</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I202" t="n">
+        <v>9</v>
+      </c>
+      <c r="J202" t="n">
+        <v>26</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>39</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1099</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1134.699951171875</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1098.699951171875</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1121</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1121</v>
+      </c>
+      <c r="G203" t="n">
+        <v>3503525</v>
+      </c>
+      <c r="H203" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I203" t="n">
+        <v>9</v>
+      </c>
+      <c r="J203" t="n">
+        <v>27</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>39</v>
+      </c>
+      <c r="O203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R203" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R203"/>
+  <dimension ref="A1:R207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11613,7 +11613,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
-      <c r="R199" t="inlineStr"/>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11667,7 +11669,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
-      <c r="R200" t="inlineStr"/>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11721,7 +11725,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
-      <c r="R201" t="inlineStr"/>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11775,7 +11781,9 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
-      <c r="R202" t="inlineStr"/>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -11829,7 +11837,225 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
-      <c r="R203" t="inlineStr"/>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1115</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1118</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1100.199951171875</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1103.150024414062</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1103.150024414062</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1343474</v>
+      </c>
+      <c r="H204" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I204" t="n">
+        <v>9</v>
+      </c>
+      <c r="J204" t="n">
+        <v>30</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>40</v>
+      </c>
+      <c r="O204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1105</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1112</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1091.400024414062</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1094.25</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1094.25</v>
+      </c>
+      <c r="G205" t="n">
+        <v>993851</v>
+      </c>
+      <c r="H205" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I205" t="n">
+        <v>10</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>40</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1078.900024414062</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1087.699951171875</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1061.050048828125</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1063.300048828125</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1063.300048828125</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1400311</v>
+      </c>
+      <c r="H206" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I206" t="n">
+        <v>10</v>
+      </c>
+      <c r="J206" t="n">
+        <v>3</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>40</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1063.349975585938</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1081.849975585938</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1047.25</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1057.449951171875</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1057.449951171875</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1922950</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I207" t="n">
+        <v>10</v>
+      </c>
+      <c r="J207" t="n">
+        <v>4</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>40</v>
+      </c>
+      <c r="O207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R207" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R207"/>
+  <dimension ref="A1:R212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11549,7 +11549,7 @@
         <v>38</v>
       </c>
       <c r="O198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P198" t="n">
         <v>0</v>
@@ -11893,7 +11893,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
-      <c r="R204" t="inlineStr"/>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11947,7 +11949,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
-      <c r="R205" t="inlineStr"/>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -12001,7 +12005,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
-      <c r="R206" t="inlineStr"/>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -12055,7 +12061,279 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
-      <c r="R207" t="inlineStr"/>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1065</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1070.650024414062</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1016.5</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1025.849975585938</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1025.849975585938</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2132467</v>
+      </c>
+      <c r="H208" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I208" t="n">
+        <v>10</v>
+      </c>
+      <c r="J208" t="n">
+        <v>7</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>41</v>
+      </c>
+      <c r="O208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1048.550048828125</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1021.549987792969</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1044</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1044</v>
+      </c>
+      <c r="G209" t="n">
+        <v>977237</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I209" t="n">
+        <v>10</v>
+      </c>
+      <c r="J209" t="n">
+        <v>8</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>41</v>
+      </c>
+      <c r="O209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1064</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1064.050048828125</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1044.199951171875</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1048.699951171875</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1048.699951171875</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1352959</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I210" t="n">
+        <v>10</v>
+      </c>
+      <c r="J210" t="n">
+        <v>9</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>41</v>
+      </c>
+      <c r="O210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1045.099975585938</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1089.150024414062</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1045.099975585938</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1064.699951171875</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1064.699951171875</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2986720</v>
+      </c>
+      <c r="H211" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I211" t="n">
+        <v>10</v>
+      </c>
+      <c r="J211" t="n">
+        <v>10</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>41</v>
+      </c>
+      <c r="O211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1064.699951171875</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1068.5</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1051.699951171875</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="G212" t="n">
+        <v>820414</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I212" t="n">
+        <v>10</v>
+      </c>
+      <c r="J212" t="n">
+        <v>11</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" t="n">
+        <v>41</v>
+      </c>
+      <c r="O212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R212" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R212"/>
+  <dimension ref="A1:R217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12117,7 +12117,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
-      <c r="R208" t="inlineStr"/>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -12171,7 +12173,9 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
-      <c r="R209" t="inlineStr"/>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -12225,7 +12229,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
-      <c r="R210" t="inlineStr"/>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -12279,7 +12285,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
-      <c r="R211" t="inlineStr"/>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -12333,7 +12341,279 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
-      <c r="R212" t="inlineStr"/>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1057.5</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1062.449951171875</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1048.099975585938</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="G213" t="n">
+        <v>805321</v>
+      </c>
+      <c r="H213" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I213" t="n">
+        <v>10</v>
+      </c>
+      <c r="J213" t="n">
+        <v>14</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>42</v>
+      </c>
+      <c r="O213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1057.900024414062</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1064</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1052.349975585938</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1056.650024414062</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1056.650024414062</v>
+      </c>
+      <c r="G214" t="n">
+        <v>738519</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I214" t="n">
+        <v>10</v>
+      </c>
+      <c r="J214" t="n">
+        <v>15</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>42</v>
+      </c>
+      <c r="O214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1042</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1080</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1042</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1077.650024414062</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1077.650024414062</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1483760</v>
+      </c>
+      <c r="H215" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I215" t="n">
+        <v>10</v>
+      </c>
+      <c r="J215" t="n">
+        <v>16</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>42</v>
+      </c>
+      <c r="O215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1076.900024414062</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1087.849975585938</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1058</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1059.900024414062</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1059.900024414062</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1259528</v>
+      </c>
+      <c r="H216" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I216" t="n">
+        <v>10</v>
+      </c>
+      <c r="J216" t="n">
+        <v>17</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>42</v>
+      </c>
+      <c r="O216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1055</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1067.449951171875</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1044.550048828125</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1060.099975585938</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1060.099975585938</v>
+      </c>
+      <c r="G217" t="n">
+        <v>808764</v>
+      </c>
+      <c r="H217" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I217" t="n">
+        <v>10</v>
+      </c>
+      <c r="J217" t="n">
+        <v>18</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>42</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R217"/>
+  <dimension ref="A1:R222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12109,7 +12109,7 @@
         <v>41</v>
       </c>
       <c r="O208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P208" t="n">
         <v>0</v>
@@ -12397,7 +12397,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
-      <c r="R213" t="inlineStr"/>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -12451,7 +12453,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
-      <c r="R214" t="inlineStr"/>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -12505,7 +12509,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
-      <c r="R215" t="inlineStr"/>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -12559,7 +12565,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
-      <c r="R216" t="inlineStr"/>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -12613,7 +12621,279 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
-      <c r="R217" t="inlineStr"/>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1074.949951171875</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1052.75</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1052.75</v>
+      </c>
+      <c r="G218" t="n">
+        <v>952178</v>
+      </c>
+      <c r="H218" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I218" t="n">
+        <v>10</v>
+      </c>
+      <c r="J218" t="n">
+        <v>21</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>43</v>
+      </c>
+      <c r="O218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1056</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1063.800048828125</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1020.049987792969</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1022.549987792969</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1022.549987792969</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1145278</v>
+      </c>
+      <c r="H219" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I219" t="n">
+        <v>10</v>
+      </c>
+      <c r="J219" t="n">
+        <v>22</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>43</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1023.650024414062</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1056.900024414062</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1014.049987792969</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1040.050048828125</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1040.050048828125</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1319982</v>
+      </c>
+      <c r="H220" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I220" t="n">
+        <v>10</v>
+      </c>
+      <c r="J220" t="n">
+        <v>23</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>43</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1040.900024414062</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1051.300048828125</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1018.150024414062</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1024.849975585938</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1024.849975585938</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1022283</v>
+      </c>
+      <c r="H221" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I221" t="n">
+        <v>10</v>
+      </c>
+      <c r="J221" t="n">
+        <v>24</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>43</v>
+      </c>
+      <c r="O221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1028</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1032.900024414062</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1000.099975585938</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1011.450012207031</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1011.450012207031</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1207296</v>
+      </c>
+      <c r="H222" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I222" t="n">
+        <v>10</v>
+      </c>
+      <c r="J222" t="n">
+        <v>25</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>43</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R222" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R222"/>
+  <dimension ref="A1:R225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12677,7 +12677,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
-      <c r="R218" t="inlineStr"/>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12731,7 +12733,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
-      <c r="R219" t="inlineStr"/>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12785,7 +12789,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
-      <c r="R220" t="inlineStr"/>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12839,7 +12845,9 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
-      <c r="R221" t="inlineStr"/>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -12893,7 +12901,171 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
-      <c r="R222" t="inlineStr"/>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1030.599975585938</v>
+      </c>
+      <c r="D223" t="n">
+        <v>994.5</v>
+      </c>
+      <c r="E223" t="n">
+        <v>999.5</v>
+      </c>
+      <c r="F223" t="n">
+        <v>999.5</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1338772</v>
+      </c>
+      <c r="H223" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I223" t="n">
+        <v>10</v>
+      </c>
+      <c r="J223" t="n">
+        <v>28</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>44</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1004.5</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1016.400024414062</v>
+      </c>
+      <c r="D224" t="n">
+        <v>986.75</v>
+      </c>
+      <c r="E224" t="n">
+        <v>999.75</v>
+      </c>
+      <c r="F224" t="n">
+        <v>999.75</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1707586</v>
+      </c>
+      <c r="H224" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I224" t="n">
+        <v>10</v>
+      </c>
+      <c r="J224" t="n">
+        <v>29</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>44</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1005.599975585938</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1012.900024414062</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1000.200012207031</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1006.299987792969</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1006.299987792969</v>
+      </c>
+      <c r="G225" t="n">
+        <v>458842</v>
+      </c>
+      <c r="H225" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I225" t="n">
+        <v>10</v>
+      </c>
+      <c r="J225" t="n">
+        <v>31</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>44</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R225" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R225"/>
+  <dimension ref="A1:R230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12957,7 +12957,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
-      <c r="R223" t="inlineStr"/>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -13011,7 +13013,9 @@
       <c r="Q224" t="n">
         <v>0</v>
       </c>
-      <c r="R224" t="inlineStr"/>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -13065,7 +13069,279 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
-      <c r="R225" t="inlineStr"/>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1032</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1027.199951171875</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1027.199951171875</v>
+      </c>
+      <c r="G226" t="n">
+        <v>457090</v>
+      </c>
+      <c r="H226" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I226" t="n">
+        <v>11</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>44</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1029</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1010.700012207031</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1010.700012207031</v>
+      </c>
+      <c r="G227" t="n">
+        <v>617622</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I227" t="n">
+        <v>11</v>
+      </c>
+      <c r="J227" t="n">
+        <v>4</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>45</v>
+      </c>
+      <c r="O227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1038</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1014.25</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1033.900024414062</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1033.900024414062</v>
+      </c>
+      <c r="G228" t="n">
+        <v>841279</v>
+      </c>
+      <c r="H228" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I228" t="n">
+        <v>11</v>
+      </c>
+      <c r="J228" t="n">
+        <v>6</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>45</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1036</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1017</v>
+      </c>
+      <c r="G229" t="n">
+        <v>488039</v>
+      </c>
+      <c r="H229" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I229" t="n">
+        <v>11</v>
+      </c>
+      <c r="J229" t="n">
+        <v>7</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>45</v>
+      </c>
+      <c r="O229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1018.25</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1019.700012207031</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1004.950012207031</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1004.950012207031</v>
+      </c>
+      <c r="G230" t="n">
+        <v>503654</v>
+      </c>
+      <c r="H230" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I230" t="n">
+        <v>11</v>
+      </c>
+      <c r="J230" t="n">
+        <v>8</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>45</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R230" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R230"/>
+  <dimension ref="A1:R234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13125,7 +13125,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
-      <c r="R226" t="inlineStr"/>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -13179,7 +13181,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
-      <c r="R227" t="inlineStr"/>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -13233,7 +13237,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
-      <c r="R228" t="inlineStr"/>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -13287,7 +13293,9 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
-      <c r="R229" t="inlineStr"/>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -13341,7 +13349,225 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
-      <c r="R230" t="inlineStr"/>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1004.950012207031</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1005.450012207031</v>
+      </c>
+      <c r="D231" t="n">
+        <v>995</v>
+      </c>
+      <c r="E231" t="n">
+        <v>996.1500244140625</v>
+      </c>
+      <c r="F231" t="n">
+        <v>996.1500244140625</v>
+      </c>
+      <c r="G231" t="n">
+        <v>593172</v>
+      </c>
+      <c r="H231" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I231" t="n">
+        <v>11</v>
+      </c>
+      <c r="J231" t="n">
+        <v>11</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>46</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B232" t="n">
+        <v>999</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1005.650024414062</v>
+      </c>
+      <c r="D232" t="n">
+        <v>990.0499877929688</v>
+      </c>
+      <c r="E232" t="n">
+        <v>993.2999877929688</v>
+      </c>
+      <c r="F232" t="n">
+        <v>993.2999877929688</v>
+      </c>
+      <c r="G232" t="n">
+        <v>471171</v>
+      </c>
+      <c r="H232" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I232" t="n">
+        <v>11</v>
+      </c>
+      <c r="J232" t="n">
+        <v>12</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>46</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B233" t="n">
+        <v>991.3499755859375</v>
+      </c>
+      <c r="C233" t="n">
+        <v>997.0999755859375</v>
+      </c>
+      <c r="D233" t="n">
+        <v>956.6500244140625</v>
+      </c>
+      <c r="E233" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="F233" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1248272</v>
+      </c>
+      <c r="H233" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I233" t="n">
+        <v>11</v>
+      </c>
+      <c r="J233" t="n">
+        <v>13</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>46</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B234" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="C234" t="n">
+        <v>971.6500244140625</v>
+      </c>
+      <c r="D234" t="n">
+        <v>957</v>
+      </c>
+      <c r="E234" t="n">
+        <v>962.2999877929688</v>
+      </c>
+      <c r="F234" t="n">
+        <v>962.2999877929688</v>
+      </c>
+      <c r="G234" t="n">
+        <v>639883</v>
+      </c>
+      <c r="H234" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I234" t="n">
+        <v>11</v>
+      </c>
+      <c r="J234" t="n">
+        <v>14</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>46</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R234"/>
+  <dimension ref="A1:R238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13405,7 +13405,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
-      <c r="R231" t="inlineStr"/>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -13459,7 +13461,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
-      <c r="R232" t="inlineStr"/>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -13513,7 +13517,9 @@
       <c r="Q233" t="n">
         <v>0</v>
       </c>
-      <c r="R233" t="inlineStr"/>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -13567,7 +13573,225 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
-      <c r="R234" t="inlineStr"/>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B235" t="n">
+        <v>968</v>
+      </c>
+      <c r="C235" t="n">
+        <v>968</v>
+      </c>
+      <c r="D235" t="n">
+        <v>940</v>
+      </c>
+      <c r="E235" t="n">
+        <v>941.2000122070312</v>
+      </c>
+      <c r="F235" t="n">
+        <v>941.2000122070312</v>
+      </c>
+      <c r="G235" t="n">
+        <v>985878</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I235" t="n">
+        <v>11</v>
+      </c>
+      <c r="J235" t="n">
+        <v>18</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>47</v>
+      </c>
+      <c r="O235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B236" t="n">
+        <v>944.0999755859375</v>
+      </c>
+      <c r="C236" t="n">
+        <v>959</v>
+      </c>
+      <c r="D236" t="n">
+        <v>943.0999755859375</v>
+      </c>
+      <c r="E236" t="n">
+        <v>948.5499877929688</v>
+      </c>
+      <c r="F236" t="n">
+        <v>948.5499877929688</v>
+      </c>
+      <c r="G236" t="n">
+        <v>633404</v>
+      </c>
+      <c r="H236" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I236" t="n">
+        <v>11</v>
+      </c>
+      <c r="J236" t="n">
+        <v>19</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>47</v>
+      </c>
+      <c r="O236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B237" t="n">
+        <v>954</v>
+      </c>
+      <c r="C237" t="n">
+        <v>954.9000244140625</v>
+      </c>
+      <c r="D237" t="n">
+        <v>931.0499877929688</v>
+      </c>
+      <c r="E237" t="n">
+        <v>933.1500244140625</v>
+      </c>
+      <c r="F237" t="n">
+        <v>933.1500244140625</v>
+      </c>
+      <c r="G237" t="n">
+        <v>803218</v>
+      </c>
+      <c r="H237" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I237" t="n">
+        <v>11</v>
+      </c>
+      <c r="J237" t="n">
+        <v>21</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>47</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B238" t="n">
+        <v>935.5499877929688</v>
+      </c>
+      <c r="C238" t="n">
+        <v>944</v>
+      </c>
+      <c r="D238" t="n">
+        <v>931</v>
+      </c>
+      <c r="E238" t="n">
+        <v>941.2000122070312</v>
+      </c>
+      <c r="F238" t="n">
+        <v>941.2000122070312</v>
+      </c>
+      <c r="G238" t="n">
+        <v>523941</v>
+      </c>
+      <c r="H238" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I238" t="n">
+        <v>11</v>
+      </c>
+      <c r="J238" t="n">
+        <v>22</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>47</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R238" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R238"/>
+  <dimension ref="A1:R243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13629,7 +13629,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
-      <c r="R235" t="inlineStr"/>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -13683,7 +13685,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
-      <c r="R236" t="inlineStr"/>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -13737,7 +13741,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
-      <c r="R237" t="inlineStr"/>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -13791,7 +13797,279 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
-      <c r="R238" t="inlineStr"/>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B239" t="n">
+        <v>955</v>
+      </c>
+      <c r="C239" t="n">
+        <v>963</v>
+      </c>
+      <c r="D239" t="n">
+        <v>941</v>
+      </c>
+      <c r="E239" t="n">
+        <v>943.1500244140625</v>
+      </c>
+      <c r="F239" t="n">
+        <v>943.1500244140625</v>
+      </c>
+      <c r="G239" t="n">
+        <v>629942</v>
+      </c>
+      <c r="H239" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I239" t="n">
+        <v>11</v>
+      </c>
+      <c r="J239" t="n">
+        <v>25</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>48</v>
+      </c>
+      <c r="O239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B240" t="n">
+        <v>946.7999877929688</v>
+      </c>
+      <c r="C240" t="n">
+        <v>952.9500122070312</v>
+      </c>
+      <c r="D240" t="n">
+        <v>940.0499877929688</v>
+      </c>
+      <c r="E240" t="n">
+        <v>942.9000244140625</v>
+      </c>
+      <c r="F240" t="n">
+        <v>942.9000244140625</v>
+      </c>
+      <c r="G240" t="n">
+        <v>463315</v>
+      </c>
+      <c r="H240" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I240" t="n">
+        <v>11</v>
+      </c>
+      <c r="J240" t="n">
+        <v>26</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>48</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B241" t="n">
+        <v>944.9500122070312</v>
+      </c>
+      <c r="C241" t="n">
+        <v>948.4500122070312</v>
+      </c>
+      <c r="D241" t="n">
+        <v>937.7000122070312</v>
+      </c>
+      <c r="E241" t="n">
+        <v>940</v>
+      </c>
+      <c r="F241" t="n">
+        <v>940</v>
+      </c>
+      <c r="G241" t="n">
+        <v>667310</v>
+      </c>
+      <c r="H241" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I241" t="n">
+        <v>11</v>
+      </c>
+      <c r="J241" t="n">
+        <v>27</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>48</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B242" t="n">
+        <v>942.9000244140625</v>
+      </c>
+      <c r="C242" t="n">
+        <v>950.8499755859375</v>
+      </c>
+      <c r="D242" t="n">
+        <v>931.0999755859375</v>
+      </c>
+      <c r="E242" t="n">
+        <v>933</v>
+      </c>
+      <c r="F242" t="n">
+        <v>933</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1216017</v>
+      </c>
+      <c r="H242" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I242" t="n">
+        <v>11</v>
+      </c>
+      <c r="J242" t="n">
+        <v>28</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>48</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B243" t="n">
+        <v>934</v>
+      </c>
+      <c r="C243" t="n">
+        <v>944.3499755859375</v>
+      </c>
+      <c r="D243" t="n">
+        <v>933.0499877929688</v>
+      </c>
+      <c r="E243" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="F243" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="G243" t="n">
+        <v>632769</v>
+      </c>
+      <c r="H243" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I243" t="n">
+        <v>11</v>
+      </c>
+      <c r="J243" t="n">
+        <v>29</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>48</v>
+      </c>
+      <c r="O243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R243" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R243"/>
+  <dimension ref="A1:R248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13789,7 +13789,7 @@
         <v>47</v>
       </c>
       <c r="O238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P238" t="n">
         <v>0</v>
@@ -13853,7 +13853,9 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
-      <c r="R239" t="inlineStr"/>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -13907,7 +13909,9 @@
       <c r="Q240" t="n">
         <v>0</v>
       </c>
-      <c r="R240" t="inlineStr"/>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -13961,7 +13965,9 @@
       <c r="Q241" t="n">
         <v>0</v>
       </c>
-      <c r="R241" t="inlineStr"/>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -14015,7 +14021,9 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
-      <c r="R242" t="inlineStr"/>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -14069,7 +14077,279 @@
       <c r="Q243" t="n">
         <v>0</v>
       </c>
-      <c r="R243" t="inlineStr"/>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B244" t="n">
+        <v>939.0999755859375</v>
+      </c>
+      <c r="C244" t="n">
+        <v>956.9500122070312</v>
+      </c>
+      <c r="D244" t="n">
+        <v>936.4000244140625</v>
+      </c>
+      <c r="E244" t="n">
+        <v>948.75</v>
+      </c>
+      <c r="F244" t="n">
+        <v>948.75</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1097909</v>
+      </c>
+      <c r="H244" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I244" t="n">
+        <v>12</v>
+      </c>
+      <c r="J244" t="n">
+        <v>2</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>49</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B245" t="n">
+        <v>951</v>
+      </c>
+      <c r="C245" t="n">
+        <v>973.8499755859375</v>
+      </c>
+      <c r="D245" t="n">
+        <v>951</v>
+      </c>
+      <c r="E245" t="n">
+        <v>956.3499755859375</v>
+      </c>
+      <c r="F245" t="n">
+        <v>956.3499755859375</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1023745</v>
+      </c>
+      <c r="H245" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I245" t="n">
+        <v>12</v>
+      </c>
+      <c r="J245" t="n">
+        <v>3</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>49</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B246" t="n">
+        <v>961</v>
+      </c>
+      <c r="C246" t="n">
+        <v>968.9000244140625</v>
+      </c>
+      <c r="D246" t="n">
+        <v>948.4500122070312</v>
+      </c>
+      <c r="E246" t="n">
+        <v>951.7999877929688</v>
+      </c>
+      <c r="F246" t="n">
+        <v>951.7999877929688</v>
+      </c>
+      <c r="G246" t="n">
+        <v>947324</v>
+      </c>
+      <c r="H246" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I246" t="n">
+        <v>12</v>
+      </c>
+      <c r="J246" t="n">
+        <v>4</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>49</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B247" t="n">
+        <v>953</v>
+      </c>
+      <c r="C247" t="n">
+        <v>962.9000244140625</v>
+      </c>
+      <c r="D247" t="n">
+        <v>950.1500244140625</v>
+      </c>
+      <c r="E247" t="n">
+        <v>954.2999877929688</v>
+      </c>
+      <c r="F247" t="n">
+        <v>954.2999877929688</v>
+      </c>
+      <c r="G247" t="n">
+        <v>859736</v>
+      </c>
+      <c r="H247" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I247" t="n">
+        <v>12</v>
+      </c>
+      <c r="J247" t="n">
+        <v>5</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>49</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B248" t="n">
+        <v>958.7000122070312</v>
+      </c>
+      <c r="C248" t="n">
+        <v>959.8499755859375</v>
+      </c>
+      <c r="D248" t="n">
+        <v>949.4000244140625</v>
+      </c>
+      <c r="E248" t="n">
+        <v>953.9000244140625</v>
+      </c>
+      <c r="F248" t="n">
+        <v>953.9000244140625</v>
+      </c>
+      <c r="G248" t="n">
+        <v>701298</v>
+      </c>
+      <c r="H248" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I248" t="n">
+        <v>12</v>
+      </c>
+      <c r="J248" t="n">
+        <v>6</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>49</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R248" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R248"/>
+  <dimension ref="A1:R258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14133,7 +14133,9 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
-      <c r="R244" t="inlineStr"/>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -14179,7 +14181,7 @@
         <v>49</v>
       </c>
       <c r="O245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P245" t="n">
         <v>0</v>
@@ -14187,7 +14189,9 @@
       <c r="Q245" t="n">
         <v>0</v>
       </c>
-      <c r="R245" t="inlineStr"/>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -14241,7 +14245,9 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
-      <c r="R246" t="inlineStr"/>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -14295,7 +14301,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
-      <c r="R247" t="inlineStr"/>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -14349,7 +14357,529 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
-      <c r="R248" t="inlineStr"/>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B249" t="n">
+        <v>954.5</v>
+      </c>
+      <c r="C249" t="n">
+        <v>960</v>
+      </c>
+      <c r="D249" t="n">
+        <v>947</v>
+      </c>
+      <c r="E249" t="n">
+        <v>947.9500122070312</v>
+      </c>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="n">
+        <v>753971</v>
+      </c>
+      <c r="H249" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I249" t="n">
+        <v>12</v>
+      </c>
+      <c r="J249" t="n">
+        <v>9</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>50</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>1</v>
+      </c>
+      <c r="R249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B250" t="n">
+        <v>949.9500122070312</v>
+      </c>
+      <c r="C250" t="n">
+        <v>951.5999755859375</v>
+      </c>
+      <c r="D250" t="n">
+        <v>937</v>
+      </c>
+      <c r="E250" t="n">
+        <v>942.5999755859375</v>
+      </c>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="n">
+        <v>907420</v>
+      </c>
+      <c r="H250" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I250" t="n">
+        <v>12</v>
+      </c>
+      <c r="J250" t="n">
+        <v>10</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>50</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B251" t="n">
+        <v>944</v>
+      </c>
+      <c r="C251" t="n">
+        <v>946.5999755859375</v>
+      </c>
+      <c r="D251" t="n">
+        <v>941.1500244140625</v>
+      </c>
+      <c r="E251" t="n">
+        <v>943.1500244140625</v>
+      </c>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="n">
+        <v>424721</v>
+      </c>
+      <c r="H251" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I251" t="n">
+        <v>12</v>
+      </c>
+      <c r="J251" t="n">
+        <v>11</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>50</v>
+      </c>
+      <c r="O251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B252" t="n">
+        <v>945.7999877929688</v>
+      </c>
+      <c r="C252" t="n">
+        <v>955</v>
+      </c>
+      <c r="D252" t="n">
+        <v>940</v>
+      </c>
+      <c r="E252" t="n">
+        <v>941.9500122070312</v>
+      </c>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="n">
+        <v>861974</v>
+      </c>
+      <c r="H252" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I252" t="n">
+        <v>12</v>
+      </c>
+      <c r="J252" t="n">
+        <v>12</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>50</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B253" t="n">
+        <v>942</v>
+      </c>
+      <c r="C253" t="n">
+        <v>946.9500122070312</v>
+      </c>
+      <c r="D253" t="n">
+        <v>935</v>
+      </c>
+      <c r="E253" t="n">
+        <v>937.5499877929688</v>
+      </c>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="n">
+        <v>901494</v>
+      </c>
+      <c r="H253" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I253" t="n">
+        <v>12</v>
+      </c>
+      <c r="J253" t="n">
+        <v>13</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>50</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B254" t="n">
+        <v>937</v>
+      </c>
+      <c r="C254" t="n">
+        <v>942</v>
+      </c>
+      <c r="D254" t="n">
+        <v>931.0499877929688</v>
+      </c>
+      <c r="E254" t="n">
+        <v>932.0999755859375</v>
+      </c>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="n">
+        <v>783880</v>
+      </c>
+      <c r="H254" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I254" t="n">
+        <v>12</v>
+      </c>
+      <c r="J254" t="n">
+        <v>16</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>51</v>
+      </c>
+      <c r="O254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B255" t="n">
+        <v>933.5</v>
+      </c>
+      <c r="C255" t="n">
+        <v>936.5999755859375</v>
+      </c>
+      <c r="D255" t="n">
+        <v>927</v>
+      </c>
+      <c r="E255" t="n">
+        <v>933.2000122070312</v>
+      </c>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="n">
+        <v>1030266</v>
+      </c>
+      <c r="H255" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I255" t="n">
+        <v>12</v>
+      </c>
+      <c r="J255" t="n">
+        <v>17</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>51</v>
+      </c>
+      <c r="O255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B256" t="n">
+        <v>935</v>
+      </c>
+      <c r="C256" t="n">
+        <v>936.7000122070312</v>
+      </c>
+      <c r="D256" t="n">
+        <v>912.9500122070312</v>
+      </c>
+      <c r="E256" t="n">
+        <v>914.5999755859375</v>
+      </c>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="n">
+        <v>946006</v>
+      </c>
+      <c r="H256" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I256" t="n">
+        <v>12</v>
+      </c>
+      <c r="J256" t="n">
+        <v>18</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>51</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B257" t="n">
+        <v>910</v>
+      </c>
+      <c r="C257" t="n">
+        <v>918.9000244140625</v>
+      </c>
+      <c r="D257" t="n">
+        <v>903.8499755859375</v>
+      </c>
+      <c r="E257" t="n">
+        <v>911.7000122070312</v>
+      </c>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="n">
+        <v>757644</v>
+      </c>
+      <c r="H257" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I257" t="n">
+        <v>12</v>
+      </c>
+      <c r="J257" t="n">
+        <v>19</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>51</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B258" t="n">
+        <v>913</v>
+      </c>
+      <c r="C258" t="n">
+        <v>920</v>
+      </c>
+      <c r="D258" t="n">
+        <v>890</v>
+      </c>
+      <c r="E258" t="n">
+        <v>893.2999877929688</v>
+      </c>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="n">
+        <v>1130261</v>
+      </c>
+      <c r="H258" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I258" t="n">
+        <v>12</v>
+      </c>
+      <c r="J258" t="n">
+        <v>20</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
+        <v>51</v>
+      </c>
+      <c r="O258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R258" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R258"/>
+  <dimension ref="A1:R262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14411,7 +14411,9 @@
       <c r="Q249" t="n">
         <v>1</v>
       </c>
-      <c r="R249" t="inlineStr"/>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -14463,7 +14465,9 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
-      <c r="R250" t="inlineStr"/>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -14515,7 +14519,9 @@
       <c r="Q251" t="n">
         <v>0</v>
       </c>
-      <c r="R251" t="inlineStr"/>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -14567,7 +14573,9 @@
       <c r="Q252" t="n">
         <v>0</v>
       </c>
-      <c r="R252" t="inlineStr"/>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -14619,7 +14627,9 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
-      <c r="R253" t="inlineStr"/>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -14671,7 +14681,9 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
-      <c r="R254" t="inlineStr"/>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -14723,7 +14735,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
-      <c r="R255" t="inlineStr"/>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -14775,7 +14789,9 @@
       <c r="Q256" t="n">
         <v>0</v>
       </c>
-      <c r="R256" t="inlineStr"/>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -14827,7 +14843,9 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
-      <c r="R257" t="inlineStr"/>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -14879,7 +14897,217 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
-      <c r="R258" t="inlineStr"/>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B259" t="n">
+        <v>898</v>
+      </c>
+      <c r="C259" t="n">
+        <v>902</v>
+      </c>
+      <c r="D259" t="n">
+        <v>883.2999877929688</v>
+      </c>
+      <c r="E259" t="n">
+        <v>889.4000244140625</v>
+      </c>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="n">
+        <v>754295</v>
+      </c>
+      <c r="H259" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I259" t="n">
+        <v>12</v>
+      </c>
+      <c r="J259" t="n">
+        <v>23</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>52</v>
+      </c>
+      <c r="O259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B260" t="n">
+        <v>891</v>
+      </c>
+      <c r="C260" t="n">
+        <v>922.9000244140625</v>
+      </c>
+      <c r="D260" t="n">
+        <v>888</v>
+      </c>
+      <c r="E260" t="n">
+        <v>908.5</v>
+      </c>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="n">
+        <v>1053095</v>
+      </c>
+      <c r="H260" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I260" t="n">
+        <v>12</v>
+      </c>
+      <c r="J260" t="n">
+        <v>24</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>52</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B261" t="n">
+        <v>910.3499755859375</v>
+      </c>
+      <c r="C261" t="n">
+        <v>914.5</v>
+      </c>
+      <c r="D261" t="n">
+        <v>897.6500244140625</v>
+      </c>
+      <c r="E261" t="n">
+        <v>900.5</v>
+      </c>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="n">
+        <v>431341</v>
+      </c>
+      <c r="H261" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I261" t="n">
+        <v>12</v>
+      </c>
+      <c r="J261" t="n">
+        <v>26</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>52</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B262" t="n">
+        <v>902</v>
+      </c>
+      <c r="C262" t="n">
+        <v>907.8499755859375</v>
+      </c>
+      <c r="D262" t="n">
+        <v>897.2999877929688</v>
+      </c>
+      <c r="E262" t="n">
+        <v>898.8499755859375</v>
+      </c>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="n">
+        <v>347107</v>
+      </c>
+      <c r="H262" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I262" t="n">
+        <v>12</v>
+      </c>
+      <c r="J262" t="n">
+        <v>27</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>52</v>
+      </c>
+      <c r="O262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R262" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R262"/>
+  <dimension ref="A1:R267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14951,7 +14951,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
-      <c r="R259" t="inlineStr"/>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -15003,7 +15005,9 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
-      <c r="R260" t="inlineStr"/>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -15055,7 +15059,9 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
-      <c r="R261" t="inlineStr"/>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -15107,7 +15113,269 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
-      <c r="R262" t="inlineStr"/>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B263" t="n">
+        <v>899</v>
+      </c>
+      <c r="C263" t="n">
+        <v>899.9000244140625</v>
+      </c>
+      <c r="D263" t="n">
+        <v>886</v>
+      </c>
+      <c r="E263" t="n">
+        <v>894.7999877929688</v>
+      </c>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="n">
+        <v>685564</v>
+      </c>
+      <c r="H263" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I263" t="n">
+        <v>12</v>
+      </c>
+      <c r="J263" t="n">
+        <v>30</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B264" t="n">
+        <v>894</v>
+      </c>
+      <c r="C264" t="n">
+        <v>897.9000244140625</v>
+      </c>
+      <c r="D264" t="n">
+        <v>887.2000122070312</v>
+      </c>
+      <c r="E264" t="n">
+        <v>891.3499755859375</v>
+      </c>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="n">
+        <v>437699</v>
+      </c>
+      <c r="H264" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I264" t="n">
+        <v>12</v>
+      </c>
+      <c r="J264" t="n">
+        <v>31</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+      <c r="O264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B265" t="n">
+        <v>894</v>
+      </c>
+      <c r="C265" t="n">
+        <v>896.9500122070312</v>
+      </c>
+      <c r="D265" t="n">
+        <v>887.6500244140625</v>
+      </c>
+      <c r="E265" t="n">
+        <v>890.7999877929688</v>
+      </c>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="n">
+        <v>438587</v>
+      </c>
+      <c r="H265" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+      <c r="O265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B266" t="n">
+        <v>890.7999877929688</v>
+      </c>
+      <c r="C266" t="n">
+        <v>909.9000244140625</v>
+      </c>
+      <c r="D266" t="n">
+        <v>890.0999755859375</v>
+      </c>
+      <c r="E266" t="n">
+        <v>904.7999877929688</v>
+      </c>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="n">
+        <v>633036</v>
+      </c>
+      <c r="H266" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>2</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>1</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B267" t="n">
+        <v>906.6500244140625</v>
+      </c>
+      <c r="C267" t="n">
+        <v>912.5</v>
+      </c>
+      <c r="D267" t="n">
+        <v>895</v>
+      </c>
+      <c r="E267" t="n">
+        <v>896.5999755859375</v>
+      </c>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="n">
+        <v>625188</v>
+      </c>
+      <c r="H267" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I267" t="n">
+        <v>1</v>
+      </c>
+      <c r="J267" t="n">
+        <v>3</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>1</v>
+      </c>
+      <c r="O267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R267" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R267"/>
+  <dimension ref="A1:R272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15167,7 +15167,9 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
-      <c r="R263" t="inlineStr"/>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -15219,7 +15221,9 @@
       <c r="Q264" t="n">
         <v>0</v>
       </c>
-      <c r="R264" t="inlineStr"/>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -15271,7 +15275,9 @@
       <c r="Q265" t="n">
         <v>0</v>
       </c>
-      <c r="R265" t="inlineStr"/>
+      <c r="R265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -15323,7 +15329,9 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
-      <c r="R266" t="inlineStr"/>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -15375,7 +15383,269 @@
       <c r="Q267" t="n">
         <v>0</v>
       </c>
-      <c r="R267" t="inlineStr"/>
+      <c r="R267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B268" t="n">
+        <v>897.9500122070312</v>
+      </c>
+      <c r="C268" t="n">
+        <v>900.9000244140625</v>
+      </c>
+      <c r="D268" t="n">
+        <v>874.2000122070312</v>
+      </c>
+      <c r="E268" t="n">
+        <v>876.4000244140625</v>
+      </c>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="n">
+        <v>787086</v>
+      </c>
+      <c r="H268" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I268" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" t="n">
+        <v>6</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>2</v>
+      </c>
+      <c r="O268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B269" t="n">
+        <v>881</v>
+      </c>
+      <c r="C269" t="n">
+        <v>888</v>
+      </c>
+      <c r="D269" t="n">
+        <v>878.0499877929688</v>
+      </c>
+      <c r="E269" t="n">
+        <v>881.4500122070312</v>
+      </c>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="n">
+        <v>424409</v>
+      </c>
+      <c r="H269" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I269" t="n">
+        <v>1</v>
+      </c>
+      <c r="J269" t="n">
+        <v>7</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>2</v>
+      </c>
+      <c r="O269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B270" t="n">
+        <v>898</v>
+      </c>
+      <c r="C270" t="n">
+        <v>912</v>
+      </c>
+      <c r="D270" t="n">
+        <v>882</v>
+      </c>
+      <c r="E270" t="n">
+        <v>886.2999877929688</v>
+      </c>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="n">
+        <v>2186334</v>
+      </c>
+      <c r="H270" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1</v>
+      </c>
+      <c r="J270" t="n">
+        <v>8</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>2</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B271" t="n">
+        <v>885.75</v>
+      </c>
+      <c r="C271" t="n">
+        <v>889.5999755859375</v>
+      </c>
+      <c r="D271" t="n">
+        <v>869.7999877929688</v>
+      </c>
+      <c r="E271" t="n">
+        <v>874.2999877929688</v>
+      </c>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="n">
+        <v>576021</v>
+      </c>
+      <c r="H271" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>9</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>2</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B272" t="n">
+        <v>872.9000244140625</v>
+      </c>
+      <c r="C272" t="n">
+        <v>876.2000122070312</v>
+      </c>
+      <c r="D272" t="n">
+        <v>828.2999877929688</v>
+      </c>
+      <c r="E272" t="n">
+        <v>834.1500244140625</v>
+      </c>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="n">
+        <v>1848051</v>
+      </c>
+      <c r="H272" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>10</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>2</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R272" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R272"/>
+  <dimension ref="A1:R277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15437,7 +15437,9 @@
       <c r="Q268" t="n">
         <v>0</v>
       </c>
-      <c r="R268" t="inlineStr"/>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -15489,7 +15491,9 @@
       <c r="Q269" t="n">
         <v>0</v>
       </c>
-      <c r="R269" t="inlineStr"/>
+      <c r="R269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -15541,7 +15545,9 @@
       <c r="Q270" t="n">
         <v>0</v>
       </c>
-      <c r="R270" t="inlineStr"/>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -15593,7 +15599,9 @@
       <c r="Q271" t="n">
         <v>0</v>
       </c>
-      <c r="R271" t="inlineStr"/>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -15645,7 +15653,269 @@
       <c r="Q272" t="n">
         <v>0</v>
       </c>
-      <c r="R272" t="inlineStr"/>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B273" t="n">
+        <v>830</v>
+      </c>
+      <c r="C273" t="n">
+        <v>834.4000244140625</v>
+      </c>
+      <c r="D273" t="n">
+        <v>790.5499877929688</v>
+      </c>
+      <c r="E273" t="n">
+        <v>794.9000244140625</v>
+      </c>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>1857927</v>
+      </c>
+      <c r="H273" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>13</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>3</v>
+      </c>
+      <c r="O273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B274" t="n">
+        <v>804.3499755859375</v>
+      </c>
+      <c r="C274" t="n">
+        <v>813</v>
+      </c>
+      <c r="D274" t="n">
+        <v>795.1500244140625</v>
+      </c>
+      <c r="E274" t="n">
+        <v>799.1500244140625</v>
+      </c>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>988607</v>
+      </c>
+      <c r="H274" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" t="n">
+        <v>14</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>3</v>
+      </c>
+      <c r="O274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B275" t="n">
+        <v>804</v>
+      </c>
+      <c r="C275" t="n">
+        <v>815.5999755859375</v>
+      </c>
+      <c r="D275" t="n">
+        <v>796.7000122070312</v>
+      </c>
+      <c r="E275" t="n">
+        <v>799.9000244140625</v>
+      </c>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>813771</v>
+      </c>
+      <c r="H275" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="n">
+        <v>15</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N275" t="n">
+        <v>3</v>
+      </c>
+      <c r="O275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B276" t="n">
+        <v>809</v>
+      </c>
+      <c r="C276" t="n">
+        <v>819.4500122070312</v>
+      </c>
+      <c r="D276" t="n">
+        <v>803.6500244140625</v>
+      </c>
+      <c r="E276" t="n">
+        <v>806.5</v>
+      </c>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>1189610</v>
+      </c>
+      <c r="H276" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" t="n">
+        <v>16</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>3</v>
+      </c>
+      <c r="O276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B277" t="n">
+        <v>808</v>
+      </c>
+      <c r="C277" t="n">
+        <v>815.8499755859375</v>
+      </c>
+      <c r="D277" t="n">
+        <v>803.0999755859375</v>
+      </c>
+      <c r="E277" t="n">
+        <v>807.7000122070312</v>
+      </c>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>574808</v>
+      </c>
+      <c r="H277" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>17</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>3</v>
+      </c>
+      <c r="O277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R277" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R277"/>
+  <dimension ref="A1:R282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15707,7 +15707,9 @@
       <c r="Q273" t="n">
         <v>0</v>
       </c>
-      <c r="R273" t="inlineStr"/>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -15759,7 +15761,9 @@
       <c r="Q274" t="n">
         <v>0</v>
       </c>
-      <c r="R274" t="inlineStr"/>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -15811,7 +15815,9 @@
       <c r="Q275" t="n">
         <v>0</v>
       </c>
-      <c r="R275" t="inlineStr"/>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -15863,7 +15869,9 @@
       <c r="Q276" t="n">
         <v>0</v>
       </c>
-      <c r="R276" t="inlineStr"/>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -15915,7 +15923,269 @@
       <c r="Q277" t="n">
         <v>0</v>
       </c>
-      <c r="R277" t="inlineStr"/>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B278" t="n">
+        <v>810.0499877929688</v>
+      </c>
+      <c r="C278" t="n">
+        <v>815.6500244140625</v>
+      </c>
+      <c r="D278" t="n">
+        <v>807</v>
+      </c>
+      <c r="E278" t="n">
+        <v>812.4500122070312</v>
+      </c>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>600235</v>
+      </c>
+      <c r="H278" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="n">
+        <v>20</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>4</v>
+      </c>
+      <c r="O278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B279" t="n">
+        <v>816</v>
+      </c>
+      <c r="C279" t="n">
+        <v>841.2999877929688</v>
+      </c>
+      <c r="D279" t="n">
+        <v>812</v>
+      </c>
+      <c r="E279" t="n">
+        <v>816.8499755859375</v>
+      </c>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>1296074</v>
+      </c>
+      <c r="H279" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I279" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" t="n">
+        <v>21</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>4</v>
+      </c>
+      <c r="O279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B280" t="n">
+        <v>808.0499877929688</v>
+      </c>
+      <c r="C280" t="n">
+        <v>808.8499755859375</v>
+      </c>
+      <c r="D280" t="n">
+        <v>788.6500244140625</v>
+      </c>
+      <c r="E280" t="n">
+        <v>798.9000244140625</v>
+      </c>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>1340656</v>
+      </c>
+      <c r="H280" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I280" t="n">
+        <v>1</v>
+      </c>
+      <c r="J280" t="n">
+        <v>22</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>4</v>
+      </c>
+      <c r="O280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B281" t="n">
+        <v>800</v>
+      </c>
+      <c r="C281" t="n">
+        <v>818.5</v>
+      </c>
+      <c r="D281" t="n">
+        <v>797.2000122070312</v>
+      </c>
+      <c r="E281" t="n">
+        <v>798.8499755859375</v>
+      </c>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>717266</v>
+      </c>
+      <c r="H281" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1</v>
+      </c>
+      <c r="J281" t="n">
+        <v>23</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>4</v>
+      </c>
+      <c r="O281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B282" t="n">
+        <v>798.8499755859375</v>
+      </c>
+      <c r="C282" t="n">
+        <v>806.75</v>
+      </c>
+      <c r="D282" t="n">
+        <v>781</v>
+      </c>
+      <c r="E282" t="n">
+        <v>782.9000244140625</v>
+      </c>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>833289</v>
+      </c>
+      <c r="H282" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1</v>
+      </c>
+      <c r="J282" t="n">
+        <v>24</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N282" t="n">
+        <v>4</v>
+      </c>
+      <c r="O282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R282" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R282"/>
+  <dimension ref="A1:R286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15977,7 +15977,9 @@
       <c r="Q278" t="n">
         <v>0</v>
       </c>
-      <c r="R278" t="inlineStr"/>
+      <c r="R278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -16029,7 +16031,9 @@
       <c r="Q279" t="n">
         <v>0</v>
       </c>
-      <c r="R279" t="inlineStr"/>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -16081,7 +16085,9 @@
       <c r="Q280" t="n">
         <v>0</v>
       </c>
-      <c r="R280" t="inlineStr"/>
+      <c r="R280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -16133,7 +16139,9 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
-      <c r="R281" t="inlineStr"/>
+      <c r="R281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -16185,7 +16193,217 @@
       <c r="Q282" t="n">
         <v>0</v>
       </c>
-      <c r="R282" t="inlineStr"/>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B283" t="n">
+        <v>780</v>
+      </c>
+      <c r="C283" t="n">
+        <v>781.4000244140625</v>
+      </c>
+      <c r="D283" t="n">
+        <v>756</v>
+      </c>
+      <c r="E283" t="n">
+        <v>760.0499877929688</v>
+      </c>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>1044493</v>
+      </c>
+      <c r="H283" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I283" t="n">
+        <v>1</v>
+      </c>
+      <c r="J283" t="n">
+        <v>27</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" t="n">
+        <v>5</v>
+      </c>
+      <c r="O283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B284" t="n">
+        <v>765</v>
+      </c>
+      <c r="C284" t="n">
+        <v>775.2000122070312</v>
+      </c>
+      <c r="D284" t="n">
+        <v>737.0999755859375</v>
+      </c>
+      <c r="E284" t="n">
+        <v>754.0999755859375</v>
+      </c>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>1197217</v>
+      </c>
+      <c r="H284" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I284" t="n">
+        <v>1</v>
+      </c>
+      <c r="J284" t="n">
+        <v>28</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>5</v>
+      </c>
+      <c r="O284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B285" t="n">
+        <v>757</v>
+      </c>
+      <c r="C285" t="n">
+        <v>784.9000244140625</v>
+      </c>
+      <c r="D285" t="n">
+        <v>756.0999755859375</v>
+      </c>
+      <c r="E285" t="n">
+        <v>781.4000244140625</v>
+      </c>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>689657</v>
+      </c>
+      <c r="H285" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I285" t="n">
+        <v>1</v>
+      </c>
+      <c r="J285" t="n">
+        <v>29</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>5</v>
+      </c>
+      <c r="O285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B286" t="n">
+        <v>779.5499877929688</v>
+      </c>
+      <c r="C286" t="n">
+        <v>790</v>
+      </c>
+      <c r="D286" t="n">
+        <v>777</v>
+      </c>
+      <c r="E286" t="n">
+        <v>787.5999755859375</v>
+      </c>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="n">
+        <v>561082</v>
+      </c>
+      <c r="H286" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I286" t="n">
+        <v>1</v>
+      </c>
+      <c r="J286" t="n">
+        <v>31</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>5</v>
+      </c>
+      <c r="O286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R286" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R286"/>
+  <dimension ref="A1:R293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5507,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="Q90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R90" t="n">
         <v>1</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -16247,7 +16247,9 @@
       <c r="Q283" t="n">
         <v>0</v>
       </c>
-      <c r="R283" t="inlineStr"/>
+      <c r="R283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -16299,7 +16301,9 @@
       <c r="Q284" t="n">
         <v>0</v>
       </c>
-      <c r="R284" t="inlineStr"/>
+      <c r="R284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -16351,27 +16355,29 @@
       <c r="Q285" t="n">
         <v>0</v>
       </c>
-      <c r="R285" t="inlineStr"/>
+      <c r="R285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45688</v>
+        <v>45687</v>
       </c>
       <c r="B286" t="n">
-        <v>779.5499877929688</v>
+        <v>786.5</v>
       </c>
       <c r="C286" t="n">
-        <v>790</v>
+        <v>790.5</v>
       </c>
       <c r="D286" t="n">
-        <v>777</v>
+        <v>775.2999877929688</v>
       </c>
       <c r="E286" t="n">
-        <v>787.5999755859375</v>
+        <v>777.1500244140625</v>
       </c>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="n">
-        <v>561082</v>
+        <v>440309</v>
       </c>
       <c r="H286" t="n">
         <v>2025</v>
@@ -16380,7 +16386,7 @@
         <v>1</v>
       </c>
       <c r="J286" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K286" t="n">
         <v>0</v>
@@ -16404,6 +16410,372 @@
         <v>0</v>
       </c>
       <c r="R286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B287" t="n">
+        <v>779.5499877929688</v>
+      </c>
+      <c r="C287" t="n">
+        <v>790</v>
+      </c>
+      <c r="D287" t="n">
+        <v>777</v>
+      </c>
+      <c r="E287" t="n">
+        <v>787.5999755859375</v>
+      </c>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="n">
+        <v>561082</v>
+      </c>
+      <c r="H287" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I287" t="n">
+        <v>1</v>
+      </c>
+      <c r="J287" t="n">
+        <v>31</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>5</v>
+      </c>
+      <c r="O287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B288" t="n">
+        <v>790</v>
+      </c>
+      <c r="C288" t="n">
+        <v>796.75</v>
+      </c>
+      <c r="D288" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E288" t="n">
+        <v>775.5499877929688</v>
+      </c>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="n">
+        <v>566170</v>
+      </c>
+      <c r="H288" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I288" t="n">
+        <v>2</v>
+      </c>
+      <c r="J288" t="n">
+        <v>1</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" t="n">
+        <v>5</v>
+      </c>
+      <c r="O288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B289" t="n">
+        <v>770.25</v>
+      </c>
+      <c r="C289" t="n">
+        <v>774.2000122070312</v>
+      </c>
+      <c r="D289" t="n">
+        <v>758.3499755859375</v>
+      </c>
+      <c r="E289" t="n">
+        <v>768.25</v>
+      </c>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="n">
+        <v>531189</v>
+      </c>
+      <c r="H289" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I289" t="n">
+        <v>2</v>
+      </c>
+      <c r="J289" t="n">
+        <v>3</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
+        <v>6</v>
+      </c>
+      <c r="O289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B290" t="n">
+        <v>772</v>
+      </c>
+      <c r="C290" t="n">
+        <v>780.4000244140625</v>
+      </c>
+      <c r="D290" t="n">
+        <v>763.75</v>
+      </c>
+      <c r="E290" t="n">
+        <v>769.75</v>
+      </c>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="n">
+        <v>519038</v>
+      </c>
+      <c r="H290" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I290" t="n">
+        <v>2</v>
+      </c>
+      <c r="J290" t="n">
+        <v>4</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>6</v>
+      </c>
+      <c r="O290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B291" t="n">
+        <v>772.1500244140625</v>
+      </c>
+      <c r="C291" t="n">
+        <v>799.2000122070312</v>
+      </c>
+      <c r="D291" t="n">
+        <v>772.1500244140625</v>
+      </c>
+      <c r="E291" t="n">
+        <v>794.5</v>
+      </c>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="n">
+        <v>769632</v>
+      </c>
+      <c r="H291" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I291" t="n">
+        <v>2</v>
+      </c>
+      <c r="J291" t="n">
+        <v>5</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N291" t="n">
+        <v>6</v>
+      </c>
+      <c r="O291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B292" t="n">
+        <v>798.9500122070312</v>
+      </c>
+      <c r="C292" t="n">
+        <v>803</v>
+      </c>
+      <c r="D292" t="n">
+        <v>784</v>
+      </c>
+      <c r="E292" t="n">
+        <v>785.2000122070312</v>
+      </c>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="n">
+        <v>521817</v>
+      </c>
+      <c r="H292" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I292" t="n">
+        <v>2</v>
+      </c>
+      <c r="J292" t="n">
+        <v>6</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>6</v>
+      </c>
+      <c r="O292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B293" t="n">
+        <v>785.9500122070312</v>
+      </c>
+      <c r="C293" t="n">
+        <v>789.75</v>
+      </c>
+      <c r="D293" t="n">
+        <v>775</v>
+      </c>
+      <c r="E293" t="n">
+        <v>776.5999755859375</v>
+      </c>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="n">
+        <v>442923</v>
+      </c>
+      <c r="H293" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I293" t="n">
+        <v>2</v>
+      </c>
+      <c r="J293" t="n">
+        <v>7</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N293" t="n">
+        <v>6</v>
+      </c>
+      <c r="O293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R293" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R293"/>
+  <dimension ref="A1:R298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16293,7 +16293,7 @@
         <v>5</v>
       </c>
       <c r="O284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P284" t="n">
         <v>0</v>
@@ -16409,7 +16409,9 @@
       <c r="Q286" t="n">
         <v>0</v>
       </c>
-      <c r="R286" t="inlineStr"/>
+      <c r="R286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -16515,7 +16517,9 @@
       <c r="Q288" t="n">
         <v>0</v>
       </c>
-      <c r="R288" t="inlineStr"/>
+      <c r="R288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -16567,7 +16571,9 @@
       <c r="Q289" t="n">
         <v>0</v>
       </c>
-      <c r="R289" t="inlineStr"/>
+      <c r="R289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -16619,7 +16625,9 @@
       <c r="Q290" t="n">
         <v>0</v>
       </c>
-      <c r="R290" t="inlineStr"/>
+      <c r="R290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -16671,7 +16679,9 @@
       <c r="Q291" t="n">
         <v>0</v>
       </c>
-      <c r="R291" t="inlineStr"/>
+      <c r="R291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -16723,7 +16733,9 @@
       <c r="Q292" t="n">
         <v>0</v>
       </c>
-      <c r="R292" t="inlineStr"/>
+      <c r="R292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -16775,7 +16787,269 @@
       <c r="Q293" t="n">
         <v>0</v>
       </c>
-      <c r="R293" t="inlineStr"/>
+      <c r="R293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B294" t="n">
+        <v>780</v>
+      </c>
+      <c r="C294" t="n">
+        <v>786.4000244140625</v>
+      </c>
+      <c r="D294" t="n">
+        <v>767.0999755859375</v>
+      </c>
+      <c r="E294" t="n">
+        <v>769.3499755859375</v>
+      </c>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="n">
+        <v>446340</v>
+      </c>
+      <c r="H294" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I294" t="n">
+        <v>2</v>
+      </c>
+      <c r="J294" t="n">
+        <v>10</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N294" t="n">
+        <v>7</v>
+      </c>
+      <c r="O294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B295" t="n">
+        <v>766</v>
+      </c>
+      <c r="C295" t="n">
+        <v>769.2999877929688</v>
+      </c>
+      <c r="D295" t="n">
+        <v>745</v>
+      </c>
+      <c r="E295" t="n">
+        <v>746.7000122070312</v>
+      </c>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="n">
+        <v>643480</v>
+      </c>
+      <c r="H295" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I295" t="n">
+        <v>2</v>
+      </c>
+      <c r="J295" t="n">
+        <v>11</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N295" t="n">
+        <v>7</v>
+      </c>
+      <c r="O295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>1</v>
+      </c>
+      <c r="R295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B296" t="n">
+        <v>748.7999877929688</v>
+      </c>
+      <c r="C296" t="n">
+        <v>751.4000244140625</v>
+      </c>
+      <c r="D296" t="n">
+        <v>725.2999877929688</v>
+      </c>
+      <c r="E296" t="n">
+        <v>738.5499877929688</v>
+      </c>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="n">
+        <v>832761</v>
+      </c>
+      <c r="H296" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I296" t="n">
+        <v>2</v>
+      </c>
+      <c r="J296" t="n">
+        <v>12</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N296" t="n">
+        <v>7</v>
+      </c>
+      <c r="O296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B297" t="n">
+        <v>738.5</v>
+      </c>
+      <c r="C297" t="n">
+        <v>750.7999877929688</v>
+      </c>
+      <c r="D297" t="n">
+        <v>736.0999755859375</v>
+      </c>
+      <c r="E297" t="n">
+        <v>737.9000244140625</v>
+      </c>
+      <c r="F297" t="inlineStr"/>
+      <c r="G297" t="n">
+        <v>492851</v>
+      </c>
+      <c r="H297" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I297" t="n">
+        <v>2</v>
+      </c>
+      <c r="J297" t="n">
+        <v>13</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N297" t="n">
+        <v>7</v>
+      </c>
+      <c r="O297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B298" t="n">
+        <v>743.7000122070312</v>
+      </c>
+      <c r="C298" t="n">
+        <v>744.2000122070312</v>
+      </c>
+      <c r="D298" t="n">
+        <v>718</v>
+      </c>
+      <c r="E298" t="n">
+        <v>733.8499755859375</v>
+      </c>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="n">
+        <v>773142</v>
+      </c>
+      <c r="H298" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I298" t="n">
+        <v>2</v>
+      </c>
+      <c r="J298" t="n">
+        <v>14</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N298" t="n">
+        <v>7</v>
+      </c>
+      <c r="O298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R298" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R298"/>
+  <dimension ref="A1:R303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16841,7 +16841,9 @@
       <c r="Q294" t="n">
         <v>0</v>
       </c>
-      <c r="R294" t="inlineStr"/>
+      <c r="R294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -16893,7 +16895,9 @@
       <c r="Q295" t="n">
         <v>1</v>
       </c>
-      <c r="R295" t="inlineStr"/>
+      <c r="R295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -16945,7 +16949,9 @@
       <c r="Q296" t="n">
         <v>0</v>
       </c>
-      <c r="R296" t="inlineStr"/>
+      <c r="R296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -16997,7 +17003,9 @@
       <c r="Q297" t="n">
         <v>0</v>
       </c>
-      <c r="R297" t="inlineStr"/>
+      <c r="R297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -17049,7 +17057,269 @@
       <c r="Q298" t="n">
         <v>0</v>
       </c>
-      <c r="R298" t="inlineStr"/>
+      <c r="R298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B299" t="n">
+        <v>731</v>
+      </c>
+      <c r="C299" t="n">
+        <v>735</v>
+      </c>
+      <c r="D299" t="n">
+        <v>715.5</v>
+      </c>
+      <c r="E299" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="n">
+        <v>905911</v>
+      </c>
+      <c r="H299" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I299" t="n">
+        <v>2</v>
+      </c>
+      <c r="J299" t="n">
+        <v>17</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N299" t="n">
+        <v>8</v>
+      </c>
+      <c r="O299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B300" t="n">
+        <v>724.0499877929688</v>
+      </c>
+      <c r="C300" t="n">
+        <v>731.5</v>
+      </c>
+      <c r="D300" t="n">
+        <v>711.2000122070312</v>
+      </c>
+      <c r="E300" t="n">
+        <v>721.2999877929688</v>
+      </c>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="n">
+        <v>789771</v>
+      </c>
+      <c r="H300" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I300" t="n">
+        <v>2</v>
+      </c>
+      <c r="J300" t="n">
+        <v>18</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>8</v>
+      </c>
+      <c r="O300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B301" t="n">
+        <v>719.9500122070312</v>
+      </c>
+      <c r="C301" t="n">
+        <v>734.0999755859375</v>
+      </c>
+      <c r="D301" t="n">
+        <v>712.5499877929688</v>
+      </c>
+      <c r="E301" t="n">
+        <v>729.6500244140625</v>
+      </c>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="n">
+        <v>728933</v>
+      </c>
+      <c r="H301" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I301" t="n">
+        <v>2</v>
+      </c>
+      <c r="J301" t="n">
+        <v>19</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N301" t="n">
+        <v>8</v>
+      </c>
+      <c r="O301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B302" t="n">
+        <v>735</v>
+      </c>
+      <c r="C302" t="n">
+        <v>764</v>
+      </c>
+      <c r="D302" t="n">
+        <v>735</v>
+      </c>
+      <c r="E302" t="n">
+        <v>748</v>
+      </c>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" t="n">
+        <v>2436661</v>
+      </c>
+      <c r="H302" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I302" t="n">
+        <v>2</v>
+      </c>
+      <c r="J302" t="n">
+        <v>20</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" t="n">
+        <v>8</v>
+      </c>
+      <c r="O302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B303" t="n">
+        <v>747.9500122070312</v>
+      </c>
+      <c r="C303" t="n">
+        <v>758.4500122070312</v>
+      </c>
+      <c r="D303" t="n">
+        <v>740.5499877929688</v>
+      </c>
+      <c r="E303" t="n">
+        <v>742.5499877929688</v>
+      </c>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="n">
+        <v>565361</v>
+      </c>
+      <c r="H303" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I303" t="n">
+        <v>2</v>
+      </c>
+      <c r="J303" t="n">
+        <v>21</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" t="n">
+        <v>8</v>
+      </c>
+      <c r="O303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R303" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R303"/>
+  <dimension ref="A1:R312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6851,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="Q114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R114" t="n">
         <v>0</v>
@@ -17111,7 +17111,9 @@
       <c r="Q299" t="n">
         <v>0</v>
       </c>
-      <c r="R299" t="inlineStr"/>
+      <c r="R299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -17163,7 +17165,9 @@
       <c r="Q300" t="n">
         <v>0</v>
       </c>
-      <c r="R300" t="inlineStr"/>
+      <c r="R300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -17215,7 +17219,9 @@
       <c r="Q301" t="n">
         <v>0</v>
       </c>
-      <c r="R301" t="inlineStr"/>
+      <c r="R301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -17267,7 +17273,9 @@
       <c r="Q302" t="n">
         <v>0</v>
       </c>
-      <c r="R302" t="inlineStr"/>
+      <c r="R302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -17319,7 +17327,477 @@
       <c r="Q303" t="n">
         <v>0</v>
       </c>
-      <c r="R303" t="inlineStr"/>
+      <c r="R303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B304" t="n">
+        <v>740</v>
+      </c>
+      <c r="C304" t="n">
+        <v>741</v>
+      </c>
+      <c r="D304" t="n">
+        <v>731.4500122070312</v>
+      </c>
+      <c r="E304" t="n">
+        <v>733.1500244140625</v>
+      </c>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="n">
+        <v>595866</v>
+      </c>
+      <c r="H304" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I304" t="n">
+        <v>2</v>
+      </c>
+      <c r="J304" t="n">
+        <v>24</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" t="n">
+        <v>9</v>
+      </c>
+      <c r="O304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B305" t="n">
+        <v>732</v>
+      </c>
+      <c r="C305" t="n">
+        <v>736.7999877929688</v>
+      </c>
+      <c r="D305" t="n">
+        <v>723.5</v>
+      </c>
+      <c r="E305" t="n">
+        <v>731.1500244140625</v>
+      </c>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="n">
+        <v>542643</v>
+      </c>
+      <c r="H305" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I305" t="n">
+        <v>2</v>
+      </c>
+      <c r="J305" t="n">
+        <v>25</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>9</v>
+      </c>
+      <c r="O305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B306" t="n">
+        <v>725</v>
+      </c>
+      <c r="C306" t="n">
+        <v>729.9000244140625</v>
+      </c>
+      <c r="D306" t="n">
+        <v>712.0499877929688</v>
+      </c>
+      <c r="E306" t="n">
+        <v>715.25</v>
+      </c>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="n">
+        <v>906397</v>
+      </c>
+      <c r="H306" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I306" t="n">
+        <v>2</v>
+      </c>
+      <c r="J306" t="n">
+        <v>27</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" t="n">
+        <v>9</v>
+      </c>
+      <c r="O306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B307" t="n">
+        <v>700.5</v>
+      </c>
+      <c r="C307" t="n">
+        <v>708.9500122070312</v>
+      </c>
+      <c r="D307" t="n">
+        <v>664.4500122070312</v>
+      </c>
+      <c r="E307" t="n">
+        <v>671.75</v>
+      </c>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="n">
+        <v>3334724</v>
+      </c>
+      <c r="H307" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I307" t="n">
+        <v>2</v>
+      </c>
+      <c r="J307" t="n">
+        <v>28</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" t="n">
+        <v>9</v>
+      </c>
+      <c r="O307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B308" t="n">
+        <v>675.0999755859375</v>
+      </c>
+      <c r="C308" t="n">
+        <v>679.4000244140625</v>
+      </c>
+      <c r="D308" t="n">
+        <v>634.5499877929688</v>
+      </c>
+      <c r="E308" t="n">
+        <v>666.25</v>
+      </c>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="n">
+        <v>2362959</v>
+      </c>
+      <c r="H308" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I308" t="n">
+        <v>3</v>
+      </c>
+      <c r="J308" t="n">
+        <v>3</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>10</v>
+      </c>
+      <c r="O308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B309" t="n">
+        <v>657.0999755859375</v>
+      </c>
+      <c r="C309" t="n">
+        <v>677</v>
+      </c>
+      <c r="D309" t="n">
+        <v>645</v>
+      </c>
+      <c r="E309" t="n">
+        <v>647</v>
+      </c>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="n">
+        <v>1905284</v>
+      </c>
+      <c r="H309" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I309" t="n">
+        <v>3</v>
+      </c>
+      <c r="J309" t="n">
+        <v>4</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N309" t="n">
+        <v>10</v>
+      </c>
+      <c r="O309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B310" t="n">
+        <v>647</v>
+      </c>
+      <c r="C310" t="n">
+        <v>676.9000244140625</v>
+      </c>
+      <c r="D310" t="n">
+        <v>647</v>
+      </c>
+      <c r="E310" t="n">
+        <v>674.4000244140625</v>
+      </c>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="n">
+        <v>1628269</v>
+      </c>
+      <c r="H310" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I310" t="n">
+        <v>3</v>
+      </c>
+      <c r="J310" t="n">
+        <v>5</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N310" t="n">
+        <v>10</v>
+      </c>
+      <c r="O310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B311" t="n">
+        <v>682</v>
+      </c>
+      <c r="C311" t="n">
+        <v>684.4000244140625</v>
+      </c>
+      <c r="D311" t="n">
+        <v>668.5</v>
+      </c>
+      <c r="E311" t="n">
+        <v>670.5999755859375</v>
+      </c>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="n">
+        <v>1332776</v>
+      </c>
+      <c r="H311" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I311" t="n">
+        <v>3</v>
+      </c>
+      <c r="J311" t="n">
+        <v>6</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" t="n">
+        <v>10</v>
+      </c>
+      <c r="O311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B312" t="n">
+        <v>671</v>
+      </c>
+      <c r="C312" t="n">
+        <v>682.5499877929688</v>
+      </c>
+      <c r="D312" t="n">
+        <v>665.0499877929688</v>
+      </c>
+      <c r="E312" t="n">
+        <v>671.5499877929688</v>
+      </c>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="n">
+        <v>1281162</v>
+      </c>
+      <c r="H312" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I312" t="n">
+        <v>3</v>
+      </c>
+      <c r="J312" t="n">
+        <v>7</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N312" t="n">
+        <v>10</v>
+      </c>
+      <c r="O312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R312" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R312"/>
+  <dimension ref="A1:R321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17381,7 +17381,9 @@
       <c r="Q304" t="n">
         <v>0</v>
       </c>
-      <c r="R304" t="inlineStr"/>
+      <c r="R304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -17433,7 +17435,9 @@
       <c r="Q305" t="n">
         <v>0</v>
       </c>
-      <c r="R305" t="inlineStr"/>
+      <c r="R305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -17485,7 +17489,9 @@
       <c r="Q306" t="n">
         <v>0</v>
       </c>
-      <c r="R306" t="inlineStr"/>
+      <c r="R306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -17537,7 +17543,9 @@
       <c r="Q307" t="n">
         <v>0</v>
       </c>
-      <c r="R307" t="inlineStr"/>
+      <c r="R307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -17589,7 +17597,9 @@
       <c r="Q308" t="n">
         <v>0</v>
       </c>
-      <c r="R308" t="inlineStr"/>
+      <c r="R308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -17641,7 +17651,9 @@
       <c r="Q309" t="n">
         <v>0</v>
       </c>
-      <c r="R309" t="inlineStr"/>
+      <c r="R309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -17693,7 +17705,9 @@
       <c r="Q310" t="n">
         <v>0</v>
       </c>
-      <c r="R310" t="inlineStr"/>
+      <c r="R310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -17745,7 +17759,9 @@
       <c r="Q311" t="n">
         <v>0</v>
       </c>
-      <c r="R311" t="inlineStr"/>
+      <c r="R311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -17797,7 +17813,477 @@
       <c r="Q312" t="n">
         <v>0</v>
       </c>
-      <c r="R312" t="inlineStr"/>
+      <c r="R312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B313" t="n">
+        <v>674.4500122070312</v>
+      </c>
+      <c r="C313" t="n">
+        <v>676</v>
+      </c>
+      <c r="D313" t="n">
+        <v>650</v>
+      </c>
+      <c r="E313" t="n">
+        <v>653.7000122070312</v>
+      </c>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="n">
+        <v>1147690</v>
+      </c>
+      <c r="H313" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I313" t="n">
+        <v>3</v>
+      </c>
+      <c r="J313" t="n">
+        <v>10</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N313" t="n">
+        <v>11</v>
+      </c>
+      <c r="O313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B314" t="n">
+        <v>650</v>
+      </c>
+      <c r="C314" t="n">
+        <v>655.75</v>
+      </c>
+      <c r="D314" t="n">
+        <v>643.7000122070312</v>
+      </c>
+      <c r="E314" t="n">
+        <v>646.7999877929688</v>
+      </c>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="n">
+        <v>1144801</v>
+      </c>
+      <c r="H314" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I314" t="n">
+        <v>3</v>
+      </c>
+      <c r="J314" t="n">
+        <v>11</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N314" t="n">
+        <v>11</v>
+      </c>
+      <c r="O314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B315" t="n">
+        <v>651</v>
+      </c>
+      <c r="C315" t="n">
+        <v>653.5999755859375</v>
+      </c>
+      <c r="D315" t="n">
+        <v>635.0999755859375</v>
+      </c>
+      <c r="E315" t="n">
+        <v>642.0999755859375</v>
+      </c>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="n">
+        <v>1421625</v>
+      </c>
+      <c r="H315" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I315" t="n">
+        <v>3</v>
+      </c>
+      <c r="J315" t="n">
+        <v>12</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N315" t="n">
+        <v>11</v>
+      </c>
+      <c r="O315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B316" t="n">
+        <v>645</v>
+      </c>
+      <c r="C316" t="n">
+        <v>647.0499877929688</v>
+      </c>
+      <c r="D316" t="n">
+        <v>630.2000122070312</v>
+      </c>
+      <c r="E316" t="n">
+        <v>636.7999877929688</v>
+      </c>
+      <c r="F316" t="inlineStr"/>
+      <c r="G316" t="n">
+        <v>1582003</v>
+      </c>
+      <c r="H316" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I316" t="n">
+        <v>3</v>
+      </c>
+      <c r="J316" t="n">
+        <v>13</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N316" t="n">
+        <v>11</v>
+      </c>
+      <c r="O316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B317" t="n">
+        <v>636.7999877929688</v>
+      </c>
+      <c r="C317" t="n">
+        <v>642.9000244140625</v>
+      </c>
+      <c r="D317" t="n">
+        <v>626.6500244140625</v>
+      </c>
+      <c r="E317" t="n">
+        <v>628.4500122070312</v>
+      </c>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="n">
+        <v>1836942</v>
+      </c>
+      <c r="H317" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I317" t="n">
+        <v>3</v>
+      </c>
+      <c r="J317" t="n">
+        <v>17</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N317" t="n">
+        <v>12</v>
+      </c>
+      <c r="O317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B318" t="n">
+        <v>632</v>
+      </c>
+      <c r="C318" t="n">
+        <v>652.9000244140625</v>
+      </c>
+      <c r="D318" t="n">
+        <v>631.6500244140625</v>
+      </c>
+      <c r="E318" t="n">
+        <v>648.0499877929688</v>
+      </c>
+      <c r="F318" t="inlineStr"/>
+      <c r="G318" t="n">
+        <v>1614250</v>
+      </c>
+      <c r="H318" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I318" t="n">
+        <v>3</v>
+      </c>
+      <c r="J318" t="n">
+        <v>18</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N318" t="n">
+        <v>12</v>
+      </c>
+      <c r="O318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B319" t="n">
+        <v>648.0499877929688</v>
+      </c>
+      <c r="C319" t="n">
+        <v>676.7000122070312</v>
+      </c>
+      <c r="D319" t="n">
+        <v>646.0999755859375</v>
+      </c>
+      <c r="E319" t="n">
+        <v>671.2999877929688</v>
+      </c>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" t="n">
+        <v>1830368</v>
+      </c>
+      <c r="H319" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I319" t="n">
+        <v>3</v>
+      </c>
+      <c r="J319" t="n">
+        <v>19</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N319" t="n">
+        <v>12</v>
+      </c>
+      <c r="O319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B320" t="n">
+        <v>680</v>
+      </c>
+      <c r="C320" t="n">
+        <v>682</v>
+      </c>
+      <c r="D320" t="n">
+        <v>665</v>
+      </c>
+      <c r="E320" t="n">
+        <v>665.9500122070312</v>
+      </c>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="n">
+        <v>1459554</v>
+      </c>
+      <c r="H320" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I320" t="n">
+        <v>3</v>
+      </c>
+      <c r="J320" t="n">
+        <v>20</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N320" t="n">
+        <v>12</v>
+      </c>
+      <c r="O320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B321" t="n">
+        <v>668.6500244140625</v>
+      </c>
+      <c r="C321" t="n">
+        <v>706.2999877929688</v>
+      </c>
+      <c r="D321" t="n">
+        <v>665.9000244140625</v>
+      </c>
+      <c r="E321" t="n">
+        <v>685.75</v>
+      </c>
+      <c r="F321" t="inlineStr"/>
+      <c r="G321" t="n">
+        <v>4152298</v>
+      </c>
+      <c r="H321" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I321" t="n">
+        <v>3</v>
+      </c>
+      <c r="J321" t="n">
+        <v>21</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0</v>
+      </c>
+      <c r="L321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N321" t="n">
+        <v>12</v>
+      </c>
+      <c r="O321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R321" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R321"/>
+  <dimension ref="A1:R330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17867,7 +17867,9 @@
       <c r="Q313" t="n">
         <v>0</v>
       </c>
-      <c r="R313" t="inlineStr"/>
+      <c r="R313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -17919,7 +17921,9 @@
       <c r="Q314" t="n">
         <v>0</v>
       </c>
-      <c r="R314" t="inlineStr"/>
+      <c r="R314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -17971,7 +17975,9 @@
       <c r="Q315" t="n">
         <v>0</v>
       </c>
-      <c r="R315" t="inlineStr"/>
+      <c r="R315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -18023,7 +18029,9 @@
       <c r="Q316" t="n">
         <v>0</v>
       </c>
-      <c r="R316" t="inlineStr"/>
+      <c r="R316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -18067,7 +18075,7 @@
         <v>12</v>
       </c>
       <c r="O317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P317" t="n">
         <v>0</v>
@@ -18075,7 +18083,9 @@
       <c r="Q317" t="n">
         <v>0</v>
       </c>
-      <c r="R317" t="inlineStr"/>
+      <c r="R317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -18127,7 +18137,9 @@
       <c r="Q318" t="n">
         <v>0</v>
       </c>
-      <c r="R318" t="inlineStr"/>
+      <c r="R318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -18179,7 +18191,9 @@
       <c r="Q319" t="n">
         <v>0</v>
       </c>
-      <c r="R319" t="inlineStr"/>
+      <c r="R319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -18231,7 +18245,9 @@
       <c r="Q320" t="n">
         <v>0</v>
       </c>
-      <c r="R320" t="inlineStr"/>
+      <c r="R320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -18283,7 +18299,477 @@
       <c r="Q321" t="n">
         <v>0</v>
       </c>
-      <c r="R321" t="inlineStr"/>
+      <c r="R321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B322" t="n">
+        <v>689.9500122070312</v>
+      </c>
+      <c r="C322" t="n">
+        <v>709.2000122070312</v>
+      </c>
+      <c r="D322" t="n">
+        <v>688.1500244140625</v>
+      </c>
+      <c r="E322" t="n">
+        <v>698.7000122070312</v>
+      </c>
+      <c r="F322" t="inlineStr"/>
+      <c r="G322" t="n">
+        <v>2289747</v>
+      </c>
+      <c r="H322" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I322" t="n">
+        <v>3</v>
+      </c>
+      <c r="J322" t="n">
+        <v>24</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N322" t="n">
+        <v>13</v>
+      </c>
+      <c r="O322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B323" t="n">
+        <v>708.7000122070312</v>
+      </c>
+      <c r="C323" t="n">
+        <v>728.75</v>
+      </c>
+      <c r="D323" t="n">
+        <v>695</v>
+      </c>
+      <c r="E323" t="n">
+        <v>698.2999877929688</v>
+      </c>
+      <c r="F323" t="inlineStr"/>
+      <c r="G323" t="n">
+        <v>4612048</v>
+      </c>
+      <c r="H323" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I323" t="n">
+        <v>3</v>
+      </c>
+      <c r="J323" t="n">
+        <v>25</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N323" t="n">
+        <v>13</v>
+      </c>
+      <c r="O323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B324" t="n">
+        <v>703</v>
+      </c>
+      <c r="C324" t="n">
+        <v>706.5499877929688</v>
+      </c>
+      <c r="D324" t="n">
+        <v>687.5999755859375</v>
+      </c>
+      <c r="E324" t="n">
+        <v>700.0999755859375</v>
+      </c>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" t="n">
+        <v>2490867</v>
+      </c>
+      <c r="H324" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I324" t="n">
+        <v>3</v>
+      </c>
+      <c r="J324" t="n">
+        <v>26</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N324" t="n">
+        <v>13</v>
+      </c>
+      <c r="O324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B325" t="n">
+        <v>687</v>
+      </c>
+      <c r="C325" t="n">
+        <v>694.7000122070312</v>
+      </c>
+      <c r="D325" t="n">
+        <v>681</v>
+      </c>
+      <c r="E325" t="n">
+        <v>687.1500244140625</v>
+      </c>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="n">
+        <v>2902393</v>
+      </c>
+      <c r="H325" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I325" t="n">
+        <v>3</v>
+      </c>
+      <c r="J325" t="n">
+        <v>27</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N325" t="n">
+        <v>13</v>
+      </c>
+      <c r="O325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B326" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="C326" t="n">
+        <v>698</v>
+      </c>
+      <c r="D326" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E326" t="n">
+        <v>679.9000244140625</v>
+      </c>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="n">
+        <v>2185464</v>
+      </c>
+      <c r="H326" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I326" t="n">
+        <v>3</v>
+      </c>
+      <c r="J326" t="n">
+        <v>28</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N326" t="n">
+        <v>13</v>
+      </c>
+      <c r="O326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B327" t="n">
+        <v>677.9000244140625</v>
+      </c>
+      <c r="C327" t="n">
+        <v>690.9500122070312</v>
+      </c>
+      <c r="D327" t="n">
+        <v>674.7000122070312</v>
+      </c>
+      <c r="E327" t="n">
+        <v>687.0499877929688</v>
+      </c>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="n">
+        <v>1618830</v>
+      </c>
+      <c r="H327" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I327" t="n">
+        <v>4</v>
+      </c>
+      <c r="J327" t="n">
+        <v>1</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N327" t="n">
+        <v>14</v>
+      </c>
+      <c r="O327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B328" t="n">
+        <v>687</v>
+      </c>
+      <c r="C328" t="n">
+        <v>690</v>
+      </c>
+      <c r="D328" t="n">
+        <v>675.0499877929688</v>
+      </c>
+      <c r="E328" t="n">
+        <v>687.8499755859375</v>
+      </c>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="n">
+        <v>866567</v>
+      </c>
+      <c r="H328" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I328" t="n">
+        <v>4</v>
+      </c>
+      <c r="J328" t="n">
+        <v>2</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N328" t="n">
+        <v>14</v>
+      </c>
+      <c r="O328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B329" t="n">
+        <v>684.8499755859375</v>
+      </c>
+      <c r="C329" t="n">
+        <v>691</v>
+      </c>
+      <c r="D329" t="n">
+        <v>677.4500122070312</v>
+      </c>
+      <c r="E329" t="n">
+        <v>680.0499877929688</v>
+      </c>
+      <c r="F329" t="inlineStr"/>
+      <c r="G329" t="n">
+        <v>1107386</v>
+      </c>
+      <c r="H329" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I329" t="n">
+        <v>4</v>
+      </c>
+      <c r="J329" t="n">
+        <v>3</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N329" t="n">
+        <v>14</v>
+      </c>
+      <c r="O329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B330" t="n">
+        <v>678</v>
+      </c>
+      <c r="C330" t="n">
+        <v>681.9000244140625</v>
+      </c>
+      <c r="D330" t="n">
+        <v>642</v>
+      </c>
+      <c r="E330" t="n">
+        <v>648.7000122070312</v>
+      </c>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" t="n">
+        <v>2136087</v>
+      </c>
+      <c r="H330" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I330" t="n">
+        <v>4</v>
+      </c>
+      <c r="J330" t="n">
+        <v>4</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N330" t="n">
+        <v>14</v>
+      </c>
+      <c r="O330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R330" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R330"/>
+  <dimension ref="A1:R334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="Q135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R135" t="n">
         <v>0</v>
@@ -18353,7 +18353,9 @@
       <c r="Q322" t="n">
         <v>0</v>
       </c>
-      <c r="R322" t="inlineStr"/>
+      <c r="R322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -18397,7 +18399,7 @@
         <v>13</v>
       </c>
       <c r="O323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P323" t="n">
         <v>0</v>
@@ -18405,7 +18407,9 @@
       <c r="Q323" t="n">
         <v>0</v>
       </c>
-      <c r="R323" t="inlineStr"/>
+      <c r="R323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -18457,7 +18461,9 @@
       <c r="Q324" t="n">
         <v>0</v>
       </c>
-      <c r="R324" t="inlineStr"/>
+      <c r="R324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -18509,7 +18515,9 @@
       <c r="Q325" t="n">
         <v>0</v>
       </c>
-      <c r="R325" t="inlineStr"/>
+      <c r="R325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -18561,7 +18569,9 @@
       <c r="Q326" t="n">
         <v>0</v>
       </c>
-      <c r="R326" t="inlineStr"/>
+      <c r="R326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -18613,7 +18623,9 @@
       <c r="Q327" t="n">
         <v>0</v>
       </c>
-      <c r="R327" t="inlineStr"/>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -18665,7 +18677,9 @@
       <c r="Q328" t="n">
         <v>0</v>
       </c>
-      <c r="R328" t="inlineStr"/>
+      <c r="R328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -18717,7 +18731,9 @@
       <c r="Q329" t="n">
         <v>0</v>
       </c>
-      <c r="R329" t="inlineStr"/>
+      <c r="R329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -18769,7 +18785,217 @@
       <c r="Q330" t="n">
         <v>0</v>
       </c>
-      <c r="R330" t="inlineStr"/>
+      <c r="R330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B331" t="n">
+        <v>602</v>
+      </c>
+      <c r="C331" t="n">
+        <v>618.2000122070312</v>
+      </c>
+      <c r="D331" t="n">
+        <v>597</v>
+      </c>
+      <c r="E331" t="n">
+        <v>608.4000244140625</v>
+      </c>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="n">
+        <v>2470876</v>
+      </c>
+      <c r="H331" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I331" t="n">
+        <v>4</v>
+      </c>
+      <c r="J331" t="n">
+        <v>7</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N331" t="n">
+        <v>15</v>
+      </c>
+      <c r="O331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B332" t="n">
+        <v>625</v>
+      </c>
+      <c r="C332" t="n">
+        <v>632.7000122070312</v>
+      </c>
+      <c r="D332" t="n">
+        <v>611.3499755859375</v>
+      </c>
+      <c r="E332" t="n">
+        <v>615.8499755859375</v>
+      </c>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="n">
+        <v>1276218</v>
+      </c>
+      <c r="H332" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I332" t="n">
+        <v>4</v>
+      </c>
+      <c r="J332" t="n">
+        <v>8</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N332" t="n">
+        <v>15</v>
+      </c>
+      <c r="O332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B333" t="n">
+        <v>615.8499755859375</v>
+      </c>
+      <c r="C333" t="n">
+        <v>617.8499755859375</v>
+      </c>
+      <c r="D333" t="n">
+        <v>599</v>
+      </c>
+      <c r="E333" t="n">
+        <v>613.1500244140625</v>
+      </c>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="n">
+        <v>1581175</v>
+      </c>
+      <c r="H333" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I333" t="n">
+        <v>4</v>
+      </c>
+      <c r="J333" t="n">
+        <v>9</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N333" t="n">
+        <v>15</v>
+      </c>
+      <c r="O333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B334" t="n">
+        <v>633.9500122070312</v>
+      </c>
+      <c r="C334" t="n">
+        <v>634</v>
+      </c>
+      <c r="D334" t="n">
+        <v>618.5999755859375</v>
+      </c>
+      <c r="E334" t="n">
+        <v>632.0499877929688</v>
+      </c>
+      <c r="F334" t="inlineStr"/>
+      <c r="G334" t="n">
+        <v>1236102</v>
+      </c>
+      <c r="H334" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I334" t="n">
+        <v>4</v>
+      </c>
+      <c r="J334" t="n">
+        <v>11</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N334" t="n">
+        <v>15</v>
+      </c>
+      <c r="O334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R334" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R334"/>
+  <dimension ref="A1:R337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18839,7 +18839,9 @@
       <c r="Q331" t="n">
         <v>0</v>
       </c>
-      <c r="R331" t="inlineStr"/>
+      <c r="R331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -18891,7 +18893,9 @@
       <c r="Q332" t="n">
         <v>0</v>
       </c>
-      <c r="R332" t="inlineStr"/>
+      <c r="R332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -18943,7 +18947,9 @@
       <c r="Q333" t="n">
         <v>0</v>
       </c>
-      <c r="R333" t="inlineStr"/>
+      <c r="R333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -18995,7 +19001,165 @@
       <c r="Q334" t="n">
         <v>0</v>
       </c>
-      <c r="R334" t="inlineStr"/>
+      <c r="R334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B335" t="n">
+        <v>637.8499755859375</v>
+      </c>
+      <c r="C335" t="n">
+        <v>655.5</v>
+      </c>
+      <c r="D335" t="n">
+        <v>637</v>
+      </c>
+      <c r="E335" t="n">
+        <v>650.4500122070312</v>
+      </c>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="n">
+        <v>1136518</v>
+      </c>
+      <c r="H335" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I335" t="n">
+        <v>4</v>
+      </c>
+      <c r="J335" t="n">
+        <v>15</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N335" t="n">
+        <v>16</v>
+      </c>
+      <c r="O335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B336" t="n">
+        <v>654</v>
+      </c>
+      <c r="C336" t="n">
+        <v>656.7999877929688</v>
+      </c>
+      <c r="D336" t="n">
+        <v>647.5</v>
+      </c>
+      <c r="E336" t="n">
+        <v>653.7999877929688</v>
+      </c>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" t="n">
+        <v>842461</v>
+      </c>
+      <c r="H336" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I336" t="n">
+        <v>4</v>
+      </c>
+      <c r="J336" t="n">
+        <v>16</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" t="n">
+        <v>16</v>
+      </c>
+      <c r="O336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B337" t="n">
+        <v>650.9500122070312</v>
+      </c>
+      <c r="C337" t="n">
+        <v>656.7000122070312</v>
+      </c>
+      <c r="D337" t="n">
+        <v>648.3499755859375</v>
+      </c>
+      <c r="E337" t="n">
+        <v>651.5</v>
+      </c>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="n">
+        <v>931823</v>
+      </c>
+      <c r="H337" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I337" t="n">
+        <v>4</v>
+      </c>
+      <c r="J337" t="n">
+        <v>17</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N337" t="n">
+        <v>16</v>
+      </c>
+      <c r="O337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R337" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R337"/>
+  <dimension ref="A1:R346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18831,7 +18831,7 @@
         <v>15</v>
       </c>
       <c r="O331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P331" t="n">
         <v>0</v>
@@ -19055,7 +19055,9 @@
       <c r="Q335" t="n">
         <v>0</v>
       </c>
-      <c r="R335" t="inlineStr"/>
+      <c r="R335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -19107,7 +19109,9 @@
       <c r="Q336" t="n">
         <v>0</v>
       </c>
-      <c r="R336" t="inlineStr"/>
+      <c r="R336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -19159,7 +19163,477 @@
       <c r="Q337" t="n">
         <v>0</v>
       </c>
-      <c r="R337" t="inlineStr"/>
+      <c r="R337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B338" t="n">
+        <v>655</v>
+      </c>
+      <c r="C338" t="n">
+        <v>686.75</v>
+      </c>
+      <c r="D338" t="n">
+        <v>655</v>
+      </c>
+      <c r="E338" t="n">
+        <v>683.9500122070312</v>
+      </c>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="n">
+        <v>2379038</v>
+      </c>
+      <c r="H338" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I338" t="n">
+        <v>4</v>
+      </c>
+      <c r="J338" t="n">
+        <v>21</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N338" t="n">
+        <v>17</v>
+      </c>
+      <c r="O338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B339" t="n">
+        <v>690.0499877929688</v>
+      </c>
+      <c r="C339" t="n">
+        <v>711.7999877929688</v>
+      </c>
+      <c r="D339" t="n">
+        <v>679</v>
+      </c>
+      <c r="E339" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="n">
+        <v>3221069</v>
+      </c>
+      <c r="H339" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I339" t="n">
+        <v>4</v>
+      </c>
+      <c r="J339" t="n">
+        <v>22</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N339" t="n">
+        <v>17</v>
+      </c>
+      <c r="O339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B340" t="n">
+        <v>715.5</v>
+      </c>
+      <c r="C340" t="n">
+        <v>726.8499755859375</v>
+      </c>
+      <c r="D340" t="n">
+        <v>711.7999877929688</v>
+      </c>
+      <c r="E340" t="n">
+        <v>720.5</v>
+      </c>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="n">
+        <v>2737947</v>
+      </c>
+      <c r="H340" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I340" t="n">
+        <v>4</v>
+      </c>
+      <c r="J340" t="n">
+        <v>23</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N340" t="n">
+        <v>17</v>
+      </c>
+      <c r="O340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B341" t="n">
+        <v>725</v>
+      </c>
+      <c r="C341" t="n">
+        <v>731.75</v>
+      </c>
+      <c r="D341" t="n">
+        <v>715</v>
+      </c>
+      <c r="E341" t="n">
+        <v>717.2000122070312</v>
+      </c>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="n">
+        <v>1858600</v>
+      </c>
+      <c r="H341" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I341" t="n">
+        <v>4</v>
+      </c>
+      <c r="J341" t="n">
+        <v>24</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N341" t="n">
+        <v>17</v>
+      </c>
+      <c r="O341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B342" t="n">
+        <v>722.6500244140625</v>
+      </c>
+      <c r="C342" t="n">
+        <v>724</v>
+      </c>
+      <c r="D342" t="n">
+        <v>688.75</v>
+      </c>
+      <c r="E342" t="n">
+        <v>693.2000122070312</v>
+      </c>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="n">
+        <v>1658895</v>
+      </c>
+      <c r="H342" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I342" t="n">
+        <v>4</v>
+      </c>
+      <c r="J342" t="n">
+        <v>25</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N342" t="n">
+        <v>17</v>
+      </c>
+      <c r="O342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B343" t="n">
+        <v>693.3499755859375</v>
+      </c>
+      <c r="C343" t="n">
+        <v>712.3499755859375</v>
+      </c>
+      <c r="D343" t="n">
+        <v>686.5999755859375</v>
+      </c>
+      <c r="E343" t="n">
+        <v>705.5999755859375</v>
+      </c>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" t="n">
+        <v>1714693</v>
+      </c>
+      <c r="H343" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I343" t="n">
+        <v>4</v>
+      </c>
+      <c r="J343" t="n">
+        <v>28</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N343" t="n">
+        <v>18</v>
+      </c>
+      <c r="O343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B344" t="n">
+        <v>685</v>
+      </c>
+      <c r="C344" t="n">
+        <v>692.4000244140625</v>
+      </c>
+      <c r="D344" t="n">
+        <v>662.1500244140625</v>
+      </c>
+      <c r="E344" t="n">
+        <v>663.7000122070312</v>
+      </c>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="n">
+        <v>45313200</v>
+      </c>
+      <c r="H344" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I344" t="n">
+        <v>4</v>
+      </c>
+      <c r="J344" t="n">
+        <v>29</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N344" t="n">
+        <v>18</v>
+      </c>
+      <c r="O344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B345" t="n">
+        <v>663</v>
+      </c>
+      <c r="C345" t="n">
+        <v>667.7999877929688</v>
+      </c>
+      <c r="D345" t="n">
+        <v>655.3499755859375</v>
+      </c>
+      <c r="E345" t="n">
+        <v>657.8499755859375</v>
+      </c>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="n">
+        <v>3045604</v>
+      </c>
+      <c r="H345" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I345" t="n">
+        <v>4</v>
+      </c>
+      <c r="J345" t="n">
+        <v>30</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N345" t="n">
+        <v>18</v>
+      </c>
+      <c r="O345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B346" t="n">
+        <v>657.8499755859375</v>
+      </c>
+      <c r="C346" t="n">
+        <v>665.9000244140625</v>
+      </c>
+      <c r="D346" t="n">
+        <v>645.5499877929688</v>
+      </c>
+      <c r="E346" t="n">
+        <v>647.0999755859375</v>
+      </c>
+      <c r="F346" t="inlineStr"/>
+      <c r="G346" t="n">
+        <v>2402408</v>
+      </c>
+      <c r="H346" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I346" t="n">
+        <v>5</v>
+      </c>
+      <c r="J346" t="n">
+        <v>2</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N346" t="n">
+        <v>18</v>
+      </c>
+      <c r="O346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R346" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TATATECH.NS.xlsx
+++ b/stock_historical_data/1d/TATATECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R346"/>
+  <dimension ref="A1:R356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19217,7 +19217,9 @@
       <c r="Q338" t="n">
         <v>0</v>
       </c>
-      <c r="R338" t="inlineStr"/>
+      <c r="R338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -19269,7 +19271,9 @@
       <c r="Q339" t="n">
         <v>0</v>
       </c>
-      <c r="R339" t="inlineStr"/>
+      <c r="R339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -19321,7 +19325,9 @@
       <c r="Q340" t="n">
         <v>0</v>
       </c>
-      <c r="R340" t="inlineStr"/>
+      <c r="R340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -19365,7 +19371,7 @@
         <v>17</v>
       </c>
       <c r="O341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P341" t="n">
         <v>0</v>
@@ -19373,7 +19379,9 @@
       <c r="Q341" t="n">
         <v>0</v>
       </c>
-      <c r="R341" t="inlineStr"/>
+      <c r="R341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -19425,7 +19433,9 @@
       <c r="Q342" t="n">
         <v>0</v>
       </c>
-      <c r="R342" t="inlineStr"/>
+      <c r="R342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -19477,7 +19487,9 @@
       <c r="Q343" t="n">
         <v>0</v>
       </c>
-      <c r="R343" t="inlineStr"/>
+      <c r="R343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -19529,7 +19541,9 @@
       <c r="Q344" t="n">
         <v>0</v>
       </c>
-      <c r="R344" t="inlineStr"/>
+      <c r="R344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -19581,7 +19595,9 @@
       <c r="Q345" t="n">
         <v>0</v>
       </c>
-      <c r="R345" t="inlineStr"/>
+      <c r="R345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -19633,7 +19649,529 @@
       <c r="Q346" t="n">
         <v>0</v>
       </c>
-      <c r="R346" t="inlineStr"/>
+      <c r="R346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B347" t="n">
+        <v>649</v>
+      </c>
+      <c r="C347" t="n">
+        <v>668.9000244140625</v>
+      </c>
+      <c r="D347" t="n">
+        <v>645.7999877929688</v>
+      </c>
+      <c r="E347" t="n">
+        <v>666.0499877929688</v>
+      </c>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="n">
+        <v>2548152</v>
+      </c>
+      <c r="H347" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I347" t="n">
+        <v>5</v>
+      </c>
+      <c r="J347" t="n">
+        <v>5</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N347" t="n">
+        <v>19</v>
+      </c>
+      <c r="O347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B348" t="n">
+        <v>667.7000122070312</v>
+      </c>
+      <c r="C348" t="n">
+        <v>669.1500244140625</v>
+      </c>
+      <c r="D348" t="n">
+        <v>647.1500244140625</v>
+      </c>
+      <c r="E348" t="n">
+        <v>648.5999755859375</v>
+      </c>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" t="n">
+        <v>1469433</v>
+      </c>
+      <c r="H348" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I348" t="n">
+        <v>5</v>
+      </c>
+      <c r="J348" t="n">
+        <v>6</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N348" t="n">
+        <v>19</v>
+      </c>
+      <c r="O348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B349" t="n">
+        <v>639.9000244140625</v>
+      </c>
+      <c r="C349" t="n">
+        <v>659.9500122070312</v>
+      </c>
+      <c r="D349" t="n">
+        <v>639.0999755859375</v>
+      </c>
+      <c r="E349" t="n">
+        <v>657.7000122070312</v>
+      </c>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="n">
+        <v>1117034</v>
+      </c>
+      <c r="H349" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I349" t="n">
+        <v>5</v>
+      </c>
+      <c r="J349" t="n">
+        <v>7</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N349" t="n">
+        <v>19</v>
+      </c>
+      <c r="O349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B350" t="n">
+        <v>660.0499877929688</v>
+      </c>
+      <c r="C350" t="n">
+        <v>672.7999877929688</v>
+      </c>
+      <c r="D350" t="n">
+        <v>651.0999755859375</v>
+      </c>
+      <c r="E350" t="n">
+        <v>654.7000122070312</v>
+      </c>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="n">
+        <v>2172018</v>
+      </c>
+      <c r="H350" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I350" t="n">
+        <v>5</v>
+      </c>
+      <c r="J350" t="n">
+        <v>8</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N350" t="n">
+        <v>19</v>
+      </c>
+      <c r="O350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B351" t="n">
+        <v>640.0999755859375</v>
+      </c>
+      <c r="C351" t="n">
+        <v>667.75</v>
+      </c>
+      <c r="D351" t="n">
+        <v>640</v>
+      </c>
+      <c r="E351" t="n">
+        <v>665.9500122070312</v>
+      </c>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="n">
+        <v>1787647</v>
+      </c>
+      <c r="H351" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I351" t="n">
+        <v>5</v>
+      </c>
+      <c r="J351" t="n">
+        <v>9</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N351" t="n">
+        <v>19</v>
+      </c>
+      <c r="O351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B352" t="n">
+        <v>675.9500122070312</v>
+      </c>
+      <c r="C352" t="n">
+        <v>705</v>
+      </c>
+      <c r="D352" t="n">
+        <v>671.3499755859375</v>
+      </c>
+      <c r="E352" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="n">
+        <v>5059163</v>
+      </c>
+      <c r="H352" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I352" t="n">
+        <v>5</v>
+      </c>
+      <c r="J352" t="n">
+        <v>12</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N352" t="n">
+        <v>20</v>
+      </c>
+      <c r="O352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P352" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B353" t="n">
+        <v>703.9500122070312</v>
+      </c>
+      <c r="C353" t="n">
+        <v>712.5999755859375</v>
+      </c>
+      <c r="D353" t="n">
+        <v>700.0499877929688</v>
+      </c>
+      <c r="E353" t="n">
+        <v>704.5</v>
+      </c>
+      <c r="F353" t="inlineStr"/>
+      <c r="G353" t="n">
+        <v>2264880</v>
+      </c>
+      <c r="H353" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I353" t="n">
+        <v>5</v>
+      </c>
+      <c r="J353" t="n">
+        <v>13</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N353" t="n">
+        <v>20</v>
+      </c>
+      <c r="O353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B354" t="n">
+        <v>711</v>
+      </c>
+      <c r="C354" t="n">
+        <v>711</v>
+      </c>
+      <c r="D354" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="E354" t="n">
+        <v>706.4500122070312</v>
+      </c>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="n">
+        <v>1659444</v>
+      </c>
+      <c r="H354" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I354" t="n">
+        <v>5</v>
+      </c>
+      <c r="J354" t="n">
+        <v>14</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N354" t="n">
+        <v>20</v>
+      </c>
+      <c r="O354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B355" t="n">
+        <v>710.9000244140625</v>
+      </c>
+      <c r="C355" t="n">
+        <v>722.9500122070312</v>
+      </c>
+      <c r="D355" t="n">
+        <v>709.0999755859375</v>
+      </c>
+      <c r="E355" t="n">
+        <v>720</v>
+      </c>
+      <c r="F355" t="inlineStr"/>
+      <c r="G355" t="n">
+        <v>2615228</v>
+      </c>
+      <c r="H355" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I355" t="n">
+        <v>5</v>
+      </c>
+      <c r="J355" t="n">
+        <v>15</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N355" t="n">
+        <v>20</v>
+      </c>
+      <c r="O355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B356" t="n">
+        <v>724</v>
+      </c>
+      <c r="C356" t="n">
+        <v>754.2000122070312</v>
+      </c>
+      <c r="D356" t="n">
+        <v>721.5</v>
+      </c>
+      <c r="E356" t="n">
+        <v>750.9000244140625</v>
+      </c>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="n">
+        <v>3926801</v>
+      </c>
+      <c r="H356" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I356" t="n">
+        <v>5</v>
+      </c>
+      <c r="J356" t="n">
+        <v>16</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N356" t="n">
+        <v>20</v>
+      </c>
+      <c r="O356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R356" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
